--- a/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798FD875-CF97-4D41-AE49-3FC63CDC3715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E95B9BC-2884-4E7F-9C3C-94E19ABEB5E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -198,6 +198,291 @@
     <t>memoly</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>「３　秘密の質問」押下</t>
+    <rPh sb="3" eb="5">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「４　回答」押下</t>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「５　確認画面へ」押下</t>
+    <rPh sb="3" eb="7">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「６　登録」押下</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「８　ログイン画面へ」押下</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「７　戻る」押下</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目を選択する</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録画面へ遷移する</t>
+    <rPh sb="0" eb="6">
+      <t>シンキトウロクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>return_login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面へ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルダウンメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力されたデータを登録し登録完了画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IDとPWと秘密の質問の回答が条件を満たしていたら確認画面へ遷移する</t>
+    <rPh sb="6" eb="8">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秘密の質問に対する回答を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秘密の質問</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>secret_question</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>QUESTION</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +491,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -251,13 +536,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="27">
@@ -571,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -602,23 +899,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -695,6 +975,64 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -955,8 +1293,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1043215" y="2859744"/>
-          <a:ext cx="1478643" cy="495193"/>
+          <a:off x="1136037" y="2915773"/>
+          <a:ext cx="1657937" cy="502664"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1093,8 +1431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1036865" y="3318656"/>
-          <a:ext cx="1478643" cy="509014"/>
+          <a:off x="1126512" y="3382156"/>
+          <a:ext cx="1657937" cy="520220"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1231,8 +1569,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="935265" y="3812144"/>
-          <a:ext cx="1573893" cy="479878"/>
+          <a:off x="1002500" y="3886850"/>
+          <a:ext cx="1778774" cy="490523"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -1488,7 +1826,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>4</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
@@ -1496,7 +1834,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>10</a:t>
+            <a:t>20</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
@@ -1515,7 +1853,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>6</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
@@ -1523,7 +1861,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>12</a:t>
+            <a:t>20</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
@@ -1567,8 +1905,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4424137" y="2915080"/>
-          <a:ext cx="1478643" cy="495193"/>
+          <a:off x="4875547" y="2971109"/>
+          <a:ext cx="1609939" cy="502664"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1705,8 +2043,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4430487" y="3354942"/>
-          <a:ext cx="1478643" cy="509014"/>
+          <a:off x="4878722" y="3418442"/>
+          <a:ext cx="1616289" cy="520220"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -2916,8 +3254,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4345215" y="3862944"/>
-          <a:ext cx="1573893" cy="479878"/>
+          <a:off x="4796625" y="3937650"/>
+          <a:ext cx="1705189" cy="487348"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -3558,168 +3896,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6328125" style="1"/>
+    <col min="1" max="6" width="3.625" style="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="29"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
-        <v>45082</v>
-      </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="31">
+        <v>45083</v>
+      </c>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
-        <v>45082</v>
-      </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33">
+        <v>45083</v>
+      </c>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5322,35 +5662,37 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
+      <c r="D44" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="41"/>
+      <c r="AF44" s="41"/>
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
@@ -5369,30 +5711,32 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
+      <c r="I45" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
@@ -5448,35 +5792,37 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
+      <c r="D47" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
@@ -5493,30 +5839,32 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
+      <c r="I48" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
       <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
@@ -5569,34 +5917,37 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
+      <c r="D50" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="42"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="42"/>
       <c r="AG50" s="8"/>
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
@@ -5613,35 +5964,37 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8"/>
-      <c r="AJ51" s="8"/>
-      <c r="AK51" s="8"/>
+      <c r="I51" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41"/>
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41"/>
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+      <c r="AK51" s="41"/>
       <c r="AL51" s="8"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
@@ -5653,35 +6006,35 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8"/>
-      <c r="AJ52" s="8"/>
-      <c r="AK52" s="8"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="46"/>
       <c r="AL52" s="8"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
@@ -5689,34 +6042,37 @@
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
+      <c r="D53" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
       <c r="AG53" s="8"/>
       <c r="AH53" s="8"/>
       <c r="AI53" s="8"/>
@@ -5733,30 +6089,32 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
+      <c r="I54" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="41"/>
       <c r="AG54" s="8"/>
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
@@ -5809,34 +6167,37 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
+      <c r="D56" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="42"/>
       <c r="AG56" s="8"/>
       <c r="AH56" s="8"/>
       <c r="AI56" s="8"/>
@@ -5853,30 +6214,32 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="8"/>
+      <c r="I57" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="41"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="41"/>
+      <c r="AA57" s="41"/>
+      <c r="AB57" s="41"/>
+      <c r="AC57" s="41"/>
+      <c r="AD57" s="41"/>
+      <c r="AE57" s="41"/>
+      <c r="AF57" s="41"/>
       <c r="AG57" s="8"/>
       <c r="AH57" s="8"/>
       <c r="AI57" s="8"/>
@@ -5929,34 +6292,37 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="8"/>
-      <c r="AD59" s="8"/>
-      <c r="AE59" s="8"/>
-      <c r="AF59" s="8"/>
+      <c r="D59" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="42"/>
+      <c r="AC59" s="42"/>
+      <c r="AD59" s="42"/>
+      <c r="AE59" s="42"/>
+      <c r="AF59" s="42"/>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
       <c r="AI59" s="8"/>
@@ -5973,30 +6339,32 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="8"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
+      <c r="I60" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="41"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="41"/>
+      <c r="AD60" s="41"/>
+      <c r="AE60" s="41"/>
+      <c r="AF60" s="41"/>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
@@ -6702,1324 +7070,1450 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="53"/>
+      <c r="D78" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
+      <c r="M78" s="55"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
+      <c r="T78" s="56"/>
+      <c r="U78" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
+      <c r="V78" s="56"/>
+      <c r="W78" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
+      <c r="X78" s="55"/>
+      <c r="Y78" s="55"/>
+      <c r="Z78" s="56"/>
+      <c r="AA78" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
+      <c r="AB78" s="55"/>
+      <c r="AC78" s="56"/>
+      <c r="AD78" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="15"/>
-      <c r="AJ78" s="15"/>
-      <c r="AK78" s="15"/>
-      <c r="AL78" s="15"/>
-      <c r="AM78" s="18"/>
+      <c r="AE78" s="55"/>
+      <c r="AF78" s="55"/>
+      <c r="AG78" s="55"/>
+      <c r="AH78" s="55"/>
+      <c r="AI78" s="55"/>
+      <c r="AJ78" s="55"/>
+      <c r="AK78" s="55"/>
+      <c r="AL78" s="55"/>
+      <c r="AM78" s="56"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="17"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="14"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="17"/>
-      <c r="AA79" s="14"/>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="17"/>
-      <c r="AD79" s="14"/>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="15"/>
-      <c r="AH79" s="15"/>
-      <c r="AI79" s="15"/>
-      <c r="AJ79" s="15"/>
-      <c r="AK79" s="15"/>
-      <c r="AL79" s="15"/>
-      <c r="AM79" s="18"/>
+      <c r="B79" s="50">
+        <v>1</v>
+      </c>
+      <c r="C79" s="51"/>
+      <c r="D79" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M79" s="48"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" s="48"/>
+      <c r="Q79" s="48"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="47">
+        <v>8</v>
+      </c>
+      <c r="T79" s="49"/>
+      <c r="U79" s="47">
+        <v>20</v>
+      </c>
+      <c r="V79" s="49"/>
+      <c r="W79" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="X79" s="48"/>
+      <c r="Y79" s="48"/>
+      <c r="Z79" s="49"/>
+      <c r="AA79" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB79" s="48"/>
+      <c r="AC79" s="49"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="44"/>
+      <c r="AF79" s="44"/>
+      <c r="AG79" s="44"/>
+      <c r="AH79" s="44"/>
+      <c r="AI79" s="44"/>
+      <c r="AJ79" s="44"/>
+      <c r="AK79" s="44"/>
+      <c r="AL79" s="44"/>
+      <c r="AM79" s="45"/>
       <c r="AN79" s="7"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="15"/>
-      <c r="AC80" s="17"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="15"/>
-      <c r="AG80" s="15"/>
-      <c r="AH80" s="15"/>
-      <c r="AI80" s="15"/>
-      <c r="AJ80" s="15"/>
-      <c r="AK80" s="15"/>
-      <c r="AL80" s="15"/>
-      <c r="AM80" s="18"/>
+      <c r="B80" s="50">
+        <v>2</v>
+      </c>
+      <c r="C80" s="51"/>
+      <c r="D80" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M80" s="48"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" s="48"/>
+      <c r="Q80" s="48"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="47">
+        <v>8</v>
+      </c>
+      <c r="T80" s="49"/>
+      <c r="U80" s="47">
+        <v>20</v>
+      </c>
+      <c r="V80" s="49"/>
+      <c r="W80" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="X80" s="48"/>
+      <c r="Y80" s="48"/>
+      <c r="Z80" s="49"/>
+      <c r="AA80" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB80" s="48"/>
+      <c r="AC80" s="49"/>
+      <c r="AD80" s="43"/>
+      <c r="AE80" s="44"/>
+      <c r="AF80" s="44"/>
+      <c r="AG80" s="44"/>
+      <c r="AH80" s="44"/>
+      <c r="AI80" s="44"/>
+      <c r="AJ80" s="44"/>
+      <c r="AK80" s="44"/>
+      <c r="AL80" s="44"/>
+      <c r="AM80" s="45"/>
       <c r="AN80" s="7"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="15"/>
-      <c r="AJ81" s="15"/>
-      <c r="AK81" s="15"/>
-      <c r="AL81" s="15"/>
-      <c r="AM81" s="18"/>
+      <c r="B81" s="50">
+        <v>3</v>
+      </c>
+      <c r="C81" s="51"/>
+      <c r="D81" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M81" s="48"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="49"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="49"/>
+      <c r="W81" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="49"/>
+      <c r="AA81" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB81" s="48"/>
+      <c r="AC81" s="49"/>
+      <c r="AD81" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE81" s="48"/>
+      <c r="AF81" s="48"/>
+      <c r="AG81" s="48"/>
+      <c r="AH81" s="48"/>
+      <c r="AI81" s="48"/>
+      <c r="AJ81" s="48"/>
+      <c r="AK81" s="48"/>
+      <c r="AL81" s="48"/>
+      <c r="AM81" s="49"/>
       <c r="AN81" s="7"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
-      <c r="AJ82" s="15"/>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="18"/>
+      <c r="B82" s="50">
+        <v>4</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" s="48"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="47">
+        <v>1</v>
+      </c>
+      <c r="T82" s="49"/>
+      <c r="U82" s="47">
+        <v>20</v>
+      </c>
+      <c r="V82" s="49"/>
+      <c r="W82" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="X82" s="48"/>
+      <c r="Y82" s="48"/>
+      <c r="Z82" s="49"/>
+      <c r="AA82" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="49"/>
+      <c r="AD82" s="43"/>
+      <c r="AE82" s="44"/>
+      <c r="AF82" s="44"/>
+      <c r="AG82" s="44"/>
+      <c r="AH82" s="44"/>
+      <c r="AI82" s="44"/>
+      <c r="AJ82" s="44"/>
+      <c r="AK82" s="44"/>
+      <c r="AL82" s="44"/>
+      <c r="AM82" s="45"/>
       <c r="AN82" s="7"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
-      <c r="AG83" s="15"/>
-      <c r="AH83" s="15"/>
-      <c r="AI83" s="15"/>
-      <c r="AJ83" s="15"/>
-      <c r="AK83" s="15"/>
-      <c r="AL83" s="15"/>
-      <c r="AM83" s="18"/>
+      <c r="B83" s="50">
+        <v>5</v>
+      </c>
+      <c r="C83" s="51"/>
+      <c r="D83" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" s="48"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P83" s="48"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="49"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="49"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="48"/>
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="49"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="49"/>
+      <c r="AD83" s="43"/>
+      <c r="AE83" s="44"/>
+      <c r="AF83" s="44"/>
+      <c r="AG83" s="44"/>
+      <c r="AH83" s="44"/>
+      <c r="AI83" s="44"/>
+      <c r="AJ83" s="44"/>
+      <c r="AK83" s="44"/>
+      <c r="AL83" s="44"/>
+      <c r="AM83" s="45"/>
       <c r="AN83" s="7"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="15"/>
-      <c r="AJ84" s="15"/>
-      <c r="AK84" s="15"/>
-      <c r="AL84" s="15"/>
-      <c r="AM84" s="18"/>
+      <c r="B84" s="50">
+        <v>6</v>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="D84" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M84" s="48"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P84" s="48"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="47"/>
+      <c r="T84" s="49"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="49"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="48"/>
+      <c r="Y84" s="48"/>
+      <c r="Z84" s="49"/>
+      <c r="AA84" s="47"/>
+      <c r="AB84" s="48"/>
+      <c r="AC84" s="49"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="48"/>
+      <c r="AF84" s="48"/>
+      <c r="AG84" s="48"/>
+      <c r="AH84" s="48"/>
+      <c r="AI84" s="48"/>
+      <c r="AJ84" s="48"/>
+      <c r="AK84" s="48"/>
+      <c r="AL84" s="48"/>
+      <c r="AM84" s="49"/>
       <c r="AN84" s="7"/>
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="15"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="15"/>
-      <c r="AF85" s="15"/>
-      <c r="AG85" s="15"/>
-      <c r="AH85" s="15"/>
-      <c r="AI85" s="15"/>
-      <c r="AJ85" s="15"/>
-      <c r="AK85" s="15"/>
-      <c r="AL85" s="15"/>
-      <c r="AM85" s="18"/>
+      <c r="B85" s="50">
+        <v>7</v>
+      </c>
+      <c r="C85" s="51"/>
+      <c r="D85" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M85" s="48"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="49"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="48"/>
+      <c r="Y85" s="48"/>
+      <c r="Z85" s="49"/>
+      <c r="AA85" s="47"/>
+      <c r="AB85" s="48"/>
+      <c r="AC85" s="49"/>
+      <c r="AD85" s="43"/>
+      <c r="AE85" s="44"/>
+      <c r="AF85" s="44"/>
+      <c r="AG85" s="44"/>
+      <c r="AH85" s="44"/>
+      <c r="AI85" s="44"/>
+      <c r="AJ85" s="44"/>
+      <c r="AK85" s="44"/>
+      <c r="AL85" s="44"/>
+      <c r="AM85" s="45"/>
       <c r="AN85" s="7"/>
     </row>
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
-      <c r="AG86" s="15"/>
-      <c r="AH86" s="15"/>
-      <c r="AI86" s="15"/>
-      <c r="AJ86" s="15"/>
-      <c r="AK86" s="15"/>
-      <c r="AL86" s="15"/>
-      <c r="AM86" s="18"/>
+      <c r="B86" s="50">
+        <v>8</v>
+      </c>
+      <c r="C86" s="51"/>
+      <c r="D86" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" s="48"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="49"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="48"/>
+      <c r="Y86" s="48"/>
+      <c r="Z86" s="49"/>
+      <c r="AA86" s="47"/>
+      <c r="AB86" s="48"/>
+      <c r="AC86" s="49"/>
+      <c r="AD86" s="43"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="44"/>
+      <c r="AH86" s="44"/>
+      <c r="AI86" s="44"/>
+      <c r="AJ86" s="44"/>
+      <c r="AK86" s="44"/>
+      <c r="AL86" s="44"/>
+      <c r="AM86" s="45"/>
       <c r="AN86" s="7"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="17"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="15"/>
-      <c r="AH87" s="15"/>
-      <c r="AI87" s="15"/>
-      <c r="AJ87" s="15"/>
-      <c r="AK87" s="15"/>
-      <c r="AL87" s="15"/>
-      <c r="AM87" s="18"/>
+      <c r="B87" s="39">
+        <v>9</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="49"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="43"/>
+      <c r="AB87" s="44"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="43"/>
+      <c r="AE87" s="44"/>
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="44"/>
+      <c r="AH87" s="44"/>
+      <c r="AI87" s="44"/>
+      <c r="AJ87" s="44"/>
+      <c r="AK87" s="44"/>
+      <c r="AL87" s="44"/>
+      <c r="AM87" s="45"/>
       <c r="AN87" s="7"/>
     </row>
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="14"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="14"/>
-      <c r="AB88" s="15"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="15"/>
-      <c r="AF88" s="15"/>
-      <c r="AG88" s="15"/>
-      <c r="AH88" s="15"/>
-      <c r="AI88" s="15"/>
-      <c r="AJ88" s="15"/>
-      <c r="AK88" s="15"/>
-      <c r="AL88" s="15"/>
-      <c r="AM88" s="18"/>
+      <c r="B88" s="39">
+        <v>10</v>
+      </c>
+      <c r="C88" s="40"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="49"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="44"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="43"/>
+      <c r="AB88" s="44"/>
+      <c r="AC88" s="45"/>
+      <c r="AD88" s="43"/>
+      <c r="AE88" s="44"/>
+      <c r="AF88" s="44"/>
+      <c r="AG88" s="44"/>
+      <c r="AH88" s="44"/>
+      <c r="AI88" s="44"/>
+      <c r="AJ88" s="44"/>
+      <c r="AK88" s="44"/>
+      <c r="AL88" s="44"/>
+      <c r="AM88" s="45"/>
       <c r="AN88" s="7"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="14"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="14"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="18"/>
+      <c r="B89" s="39">
+        <v>11</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="49"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="44"/>
+      <c r="Y89" s="44"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="43"/>
+      <c r="AB89" s="44"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="43"/>
+      <c r="AE89" s="44"/>
+      <c r="AF89" s="44"/>
+      <c r="AG89" s="44"/>
+      <c r="AH89" s="44"/>
+      <c r="AI89" s="44"/>
+      <c r="AJ89" s="44"/>
+      <c r="AK89" s="44"/>
+      <c r="AL89" s="44"/>
+      <c r="AM89" s="45"/>
       <c r="AN89" s="7"/>
     </row>
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="15"/>
-      <c r="AJ90" s="15"/>
-      <c r="AK90" s="15"/>
-      <c r="AL90" s="15"/>
-      <c r="AM90" s="18"/>
+      <c r="B90" s="39">
+        <v>12</v>
+      </c>
+      <c r="C90" s="40"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="47"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="49"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="44"/>
+      <c r="Z90" s="45"/>
+      <c r="AA90" s="43"/>
+      <c r="AB90" s="44"/>
+      <c r="AC90" s="45"/>
+      <c r="AD90" s="43"/>
+      <c r="AE90" s="44"/>
+      <c r="AF90" s="44"/>
+      <c r="AG90" s="44"/>
+      <c r="AH90" s="44"/>
+      <c r="AI90" s="44"/>
+      <c r="AJ90" s="44"/>
+      <c r="AK90" s="44"/>
+      <c r="AL90" s="44"/>
+      <c r="AM90" s="45"/>
       <c r="AN90" s="7"/>
     </row>
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="18"/>
+      <c r="B91" s="39">
+        <v>13</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="47"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="49"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="45"/>
+      <c r="AA91" s="43"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="45"/>
+      <c r="AD91" s="43"/>
+      <c r="AE91" s="44"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="44"/>
+      <c r="AH91" s="44"/>
+      <c r="AI91" s="44"/>
+      <c r="AJ91" s="44"/>
+      <c r="AK91" s="44"/>
+      <c r="AL91" s="44"/>
+      <c r="AM91" s="45"/>
       <c r="AN91" s="7"/>
     </row>
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="15"/>
-      <c r="AJ92" s="15"/>
-      <c r="AK92" s="15"/>
-      <c r="AL92" s="15"/>
-      <c r="AM92" s="18"/>
+      <c r="B92" s="39">
+        <v>14</v>
+      </c>
+      <c r="C92" s="40"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="49"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="45"/>
+      <c r="AA92" s="43"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="43"/>
+      <c r="AE92" s="44"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="44"/>
+      <c r="AH92" s="44"/>
+      <c r="AI92" s="44"/>
+      <c r="AJ92" s="44"/>
+      <c r="AK92" s="44"/>
+      <c r="AL92" s="44"/>
+      <c r="AM92" s="45"/>
       <c r="AN92" s="7"/>
     </row>
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15"/>
-      <c r="AG93" s="15"/>
-      <c r="AH93" s="15"/>
-      <c r="AI93" s="15"/>
-      <c r="AJ93" s="15"/>
-      <c r="AK93" s="15"/>
-      <c r="AL93" s="15"/>
-      <c r="AM93" s="18"/>
+      <c r="B93" s="39">
+        <v>15</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="49"/>
+      <c r="W93" s="43"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="45"/>
+      <c r="AA93" s="43"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="44"/>
+      <c r="AF93" s="44"/>
+      <c r="AG93" s="44"/>
+      <c r="AH93" s="44"/>
+      <c r="AI93" s="44"/>
+      <c r="AJ93" s="44"/>
+      <c r="AK93" s="44"/>
+      <c r="AL93" s="44"/>
+      <c r="AM93" s="45"/>
       <c r="AN93" s="7"/>
     </row>
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15"/>
-      <c r="AG94" s="15"/>
-      <c r="AH94" s="15"/>
-      <c r="AI94" s="15"/>
-      <c r="AJ94" s="15"/>
-      <c r="AK94" s="15"/>
-      <c r="AL94" s="15"/>
-      <c r="AM94" s="18"/>
+      <c r="B94" s="39">
+        <v>16</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="49"/>
+      <c r="W94" s="43"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="45"/>
+      <c r="AA94" s="43"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="45"/>
+      <c r="AD94" s="43"/>
+      <c r="AE94" s="44"/>
+      <c r="AF94" s="44"/>
+      <c r="AG94" s="44"/>
+      <c r="AH94" s="44"/>
+      <c r="AI94" s="44"/>
+      <c r="AJ94" s="44"/>
+      <c r="AK94" s="44"/>
+      <c r="AL94" s="44"/>
+      <c r="AM94" s="45"/>
       <c r="AN94" s="7"/>
     </row>
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="15"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="15"/>
-      <c r="AF95" s="15"/>
-      <c r="AG95" s="15"/>
-      <c r="AH95" s="15"/>
-      <c r="AI95" s="15"/>
-      <c r="AJ95" s="15"/>
-      <c r="AK95" s="15"/>
-      <c r="AL95" s="15"/>
-      <c r="AM95" s="18"/>
+      <c r="B95" s="39">
+        <v>17</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="45"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="49"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="44"/>
+      <c r="Z95" s="45"/>
+      <c r="AA95" s="43"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="45"/>
+      <c r="AD95" s="43"/>
+      <c r="AE95" s="44"/>
+      <c r="AF95" s="44"/>
+      <c r="AG95" s="44"/>
+      <c r="AH95" s="44"/>
+      <c r="AI95" s="44"/>
+      <c r="AJ95" s="44"/>
+      <c r="AK95" s="44"/>
+      <c r="AL95" s="44"/>
+      <c r="AM95" s="45"/>
       <c r="AN95" s="7"/>
     </row>
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="17"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="17"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="18"/>
+      <c r="B96" s="39">
+        <v>18</v>
+      </c>
+      <c r="C96" s="40"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="47"/>
+      <c r="T96" s="49"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="49"/>
+      <c r="W96" s="43"/>
+      <c r="X96" s="44"/>
+      <c r="Y96" s="44"/>
+      <c r="Z96" s="45"/>
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="44"/>
+      <c r="AC96" s="45"/>
+      <c r="AD96" s="43"/>
+      <c r="AE96" s="44"/>
+      <c r="AF96" s="44"/>
+      <c r="AG96" s="44"/>
+      <c r="AH96" s="44"/>
+      <c r="AI96" s="44"/>
+      <c r="AJ96" s="44"/>
+      <c r="AK96" s="44"/>
+      <c r="AL96" s="44"/>
+      <c r="AM96" s="45"/>
       <c r="AN96" s="7"/>
     </row>
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="15"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="15"/>
-      <c r="AF97" s="15"/>
-      <c r="AG97" s="15"/>
-      <c r="AH97" s="15"/>
-      <c r="AI97" s="15"/>
-      <c r="AJ97" s="15"/>
-      <c r="AK97" s="15"/>
-      <c r="AL97" s="15"/>
-      <c r="AM97" s="18"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="49"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="49"/>
+      <c r="W97" s="43"/>
+      <c r="X97" s="44"/>
+      <c r="Y97" s="44"/>
+      <c r="Z97" s="45"/>
+      <c r="AA97" s="43"/>
+      <c r="AB97" s="44"/>
+      <c r="AC97" s="45"/>
+      <c r="AD97" s="43"/>
+      <c r="AE97" s="44"/>
+      <c r="AF97" s="44"/>
+      <c r="AG97" s="44"/>
+      <c r="AH97" s="44"/>
+      <c r="AI97" s="44"/>
+      <c r="AJ97" s="44"/>
+      <c r="AK97" s="44"/>
+      <c r="AL97" s="44"/>
+      <c r="AM97" s="45"/>
       <c r="AN97" s="7"/>
     </row>
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="15"/>
-      <c r="AK98" s="15"/>
-      <c r="AL98" s="15"/>
-      <c r="AM98" s="18"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="47"/>
+      <c r="T98" s="49"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="49"/>
+      <c r="W98" s="43"/>
+      <c r="X98" s="44"/>
+      <c r="Y98" s="44"/>
+      <c r="Z98" s="45"/>
+      <c r="AA98" s="43"/>
+      <c r="AB98" s="44"/>
+      <c r="AC98" s="45"/>
+      <c r="AD98" s="43"/>
+      <c r="AE98" s="44"/>
+      <c r="AF98" s="44"/>
+      <c r="AG98" s="44"/>
+      <c r="AH98" s="44"/>
+      <c r="AI98" s="44"/>
+      <c r="AJ98" s="44"/>
+      <c r="AK98" s="44"/>
+      <c r="AL98" s="44"/>
+      <c r="AM98" s="45"/>
       <c r="AN98" s="7"/>
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="15"/>
-      <c r="AK99" s="15"/>
-      <c r="AL99" s="15"/>
-      <c r="AM99" s="18"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="45"/>
+      <c r="S99" s="47"/>
+      <c r="T99" s="49"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="49"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="44"/>
+      <c r="Y99" s="44"/>
+      <c r="Z99" s="45"/>
+      <c r="AA99" s="43"/>
+      <c r="AB99" s="44"/>
+      <c r="AC99" s="45"/>
+      <c r="AD99" s="43"/>
+      <c r="AE99" s="44"/>
+      <c r="AF99" s="44"/>
+      <c r="AG99" s="44"/>
+      <c r="AH99" s="44"/>
+      <c r="AI99" s="44"/>
+      <c r="AJ99" s="44"/>
+      <c r="AK99" s="44"/>
+      <c r="AL99" s="44"/>
+      <c r="AM99" s="45"/>
       <c r="AN99" s="7"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="15"/>
-      <c r="AC100" s="17"/>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="15"/>
-      <c r="AF100" s="15"/>
-      <c r="AG100" s="15"/>
-      <c r="AH100" s="15"/>
-      <c r="AI100" s="15"/>
-      <c r="AJ100" s="15"/>
-      <c r="AK100" s="15"/>
-      <c r="AL100" s="15"/>
-      <c r="AM100" s="18"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="45"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="44"/>
+      <c r="Q100" s="44"/>
+      <c r="R100" s="45"/>
+      <c r="S100" s="47"/>
+      <c r="T100" s="49"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="49"/>
+      <c r="W100" s="43"/>
+      <c r="X100" s="44"/>
+      <c r="Y100" s="44"/>
+      <c r="Z100" s="45"/>
+      <c r="AA100" s="43"/>
+      <c r="AB100" s="44"/>
+      <c r="AC100" s="45"/>
+      <c r="AD100" s="43"/>
+      <c r="AE100" s="44"/>
+      <c r="AF100" s="44"/>
+      <c r="AG100" s="44"/>
+      <c r="AH100" s="44"/>
+      <c r="AI100" s="44"/>
+      <c r="AJ100" s="44"/>
+      <c r="AK100" s="44"/>
+      <c r="AL100" s="44"/>
+      <c r="AM100" s="45"/>
       <c r="AN100" s="7"/>
     </row>
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="14"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="14"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="15"/>
-      <c r="AJ101" s="15"/>
-      <c r="AK101" s="15"/>
-      <c r="AL101" s="15"/>
-      <c r="AM101" s="18"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="44"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="44"/>
+      <c r="Q101" s="44"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="47"/>
+      <c r="T101" s="49"/>
+      <c r="U101" s="47"/>
+      <c r="V101" s="49"/>
+      <c r="W101" s="43"/>
+      <c r="X101" s="44"/>
+      <c r="Y101" s="44"/>
+      <c r="Z101" s="45"/>
+      <c r="AA101" s="43"/>
+      <c r="AB101" s="44"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="43"/>
+      <c r="AE101" s="44"/>
+      <c r="AF101" s="44"/>
+      <c r="AG101" s="44"/>
+      <c r="AH101" s="44"/>
+      <c r="AI101" s="44"/>
+      <c r="AJ101" s="44"/>
+      <c r="AK101" s="44"/>
+      <c r="AL101" s="44"/>
+      <c r="AM101" s="45"/>
       <c r="AN101" s="7"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="14"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="17"/>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15"/>
-      <c r="AH102" s="15"/>
-      <c r="AI102" s="15"/>
-      <c r="AJ102" s="15"/>
-      <c r="AK102" s="15"/>
-      <c r="AL102" s="15"/>
-      <c r="AM102" s="18"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="44"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="44"/>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="47"/>
+      <c r="T102" s="49"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="49"/>
+      <c r="W102" s="43"/>
+      <c r="X102" s="44"/>
+      <c r="Y102" s="44"/>
+      <c r="Z102" s="45"/>
+      <c r="AA102" s="43"/>
+      <c r="AB102" s="44"/>
+      <c r="AC102" s="45"/>
+      <c r="AD102" s="43"/>
+      <c r="AE102" s="44"/>
+      <c r="AF102" s="44"/>
+      <c r="AG102" s="44"/>
+      <c r="AH102" s="44"/>
+      <c r="AI102" s="44"/>
+      <c r="AJ102" s="44"/>
+      <c r="AK102" s="44"/>
+      <c r="AL102" s="44"/>
+      <c r="AM102" s="45"/>
       <c r="AN102" s="7"/>
     </row>
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="14"/>
-      <c r="AB103" s="15"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="14"/>
-      <c r="AE103" s="15"/>
-      <c r="AF103" s="15"/>
-      <c r="AG103" s="15"/>
-      <c r="AH103" s="15"/>
-      <c r="AI103" s="15"/>
-      <c r="AJ103" s="15"/>
-      <c r="AK103" s="15"/>
-      <c r="AL103" s="15"/>
-      <c r="AM103" s="18"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="44"/>
+      <c r="Q103" s="44"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="47"/>
+      <c r="T103" s="49"/>
+      <c r="U103" s="47"/>
+      <c r="V103" s="49"/>
+      <c r="W103" s="43"/>
+      <c r="X103" s="44"/>
+      <c r="Y103" s="44"/>
+      <c r="Z103" s="45"/>
+      <c r="AA103" s="43"/>
+      <c r="AB103" s="44"/>
+      <c r="AC103" s="45"/>
+      <c r="AD103" s="43"/>
+      <c r="AE103" s="44"/>
+      <c r="AF103" s="44"/>
+      <c r="AG103" s="44"/>
+      <c r="AH103" s="44"/>
+      <c r="AI103" s="44"/>
+      <c r="AJ103" s="44"/>
+      <c r="AK103" s="44"/>
+      <c r="AL103" s="44"/>
+      <c r="AM103" s="45"/>
       <c r="AN103" s="7"/>
     </row>
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="14"/>
-      <c r="AB104" s="15"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="15"/>
-      <c r="AF104" s="15"/>
-      <c r="AG104" s="15"/>
-      <c r="AH104" s="15"/>
-      <c r="AI104" s="15"/>
-      <c r="AJ104" s="15"/>
-      <c r="AK104" s="15"/>
-      <c r="AL104" s="15"/>
-      <c r="AM104" s="18"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="47"/>
+      <c r="T104" s="49"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="49"/>
+      <c r="W104" s="43"/>
+      <c r="X104" s="44"/>
+      <c r="Y104" s="44"/>
+      <c r="Z104" s="45"/>
+      <c r="AA104" s="43"/>
+      <c r="AB104" s="44"/>
+      <c r="AC104" s="45"/>
+      <c r="AD104" s="43"/>
+      <c r="AE104" s="44"/>
+      <c r="AF104" s="44"/>
+      <c r="AG104" s="44"/>
+      <c r="AH104" s="44"/>
+      <c r="AI104" s="44"/>
+      <c r="AJ104" s="44"/>
+      <c r="AK104" s="44"/>
+      <c r="AL104" s="44"/>
+      <c r="AM104" s="45"/>
       <c r="AN104" s="7"/>
     </row>
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="14"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="14"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="17"/>
-      <c r="AD105" s="14"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="18"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="44"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="44"/>
+      <c r="Q105" s="44"/>
+      <c r="R105" s="45"/>
+      <c r="S105" s="47"/>
+      <c r="T105" s="49"/>
+      <c r="U105" s="47"/>
+      <c r="V105" s="49"/>
+      <c r="W105" s="43"/>
+      <c r="X105" s="44"/>
+      <c r="Y105" s="44"/>
+      <c r="Z105" s="45"/>
+      <c r="AA105" s="43"/>
+      <c r="AB105" s="44"/>
+      <c r="AC105" s="45"/>
+      <c r="AD105" s="43"/>
+      <c r="AE105" s="44"/>
+      <c r="AF105" s="44"/>
+      <c r="AG105" s="44"/>
+      <c r="AH105" s="44"/>
+      <c r="AI105" s="44"/>
+      <c r="AJ105" s="44"/>
+      <c r="AK105" s="44"/>
+      <c r="AL105" s="44"/>
+      <c r="AM105" s="45"/>
       <c r="AN105" s="7"/>
     </row>
     <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="14"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="14"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="14"/>
-      <c r="X106" s="15"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="14"/>
-      <c r="AB106" s="15"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="14"/>
-      <c r="AE106" s="15"/>
-      <c r="AF106" s="15"/>
-      <c r="AG106" s="15"/>
-      <c r="AH106" s="15"/>
-      <c r="AI106" s="15"/>
-      <c r="AJ106" s="15"/>
-      <c r="AK106" s="15"/>
-      <c r="AL106" s="15"/>
-      <c r="AM106" s="18"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="44"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="45"/>
+      <c r="S106" s="47"/>
+      <c r="T106" s="49"/>
+      <c r="U106" s="47"/>
+      <c r="V106" s="49"/>
+      <c r="W106" s="43"/>
+      <c r="X106" s="44"/>
+      <c r="Y106" s="44"/>
+      <c r="Z106" s="45"/>
+      <c r="AA106" s="43"/>
+      <c r="AB106" s="44"/>
+      <c r="AC106" s="45"/>
+      <c r="AD106" s="43"/>
+      <c r="AE106" s="44"/>
+      <c r="AF106" s="44"/>
+      <c r="AG106" s="44"/>
+      <c r="AH106" s="44"/>
+      <c r="AI106" s="44"/>
+      <c r="AJ106" s="44"/>
+      <c r="AK106" s="44"/>
+      <c r="AL106" s="44"/>
+      <c r="AM106" s="45"/>
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="17"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="17"/>
-      <c r="W107" s="14"/>
-      <c r="X107" s="15"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="14"/>
-      <c r="AB107" s="15"/>
-      <c r="AC107" s="17"/>
-      <c r="AD107" s="14"/>
-      <c r="AE107" s="15"/>
-      <c r="AF107" s="15"/>
-      <c r="AG107" s="15"/>
-      <c r="AH107" s="15"/>
-      <c r="AI107" s="15"/>
-      <c r="AJ107" s="15"/>
-      <c r="AK107" s="15"/>
-      <c r="AL107" s="15"/>
-      <c r="AM107" s="18"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="44"/>
+      <c r="N107" s="45"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="45"/>
+      <c r="S107" s="47"/>
+      <c r="T107" s="49"/>
+      <c r="U107" s="47"/>
+      <c r="V107" s="49"/>
+      <c r="W107" s="43"/>
+      <c r="X107" s="44"/>
+      <c r="Y107" s="44"/>
+      <c r="Z107" s="45"/>
+      <c r="AA107" s="43"/>
+      <c r="AB107" s="44"/>
+      <c r="AC107" s="45"/>
+      <c r="AD107" s="43"/>
+      <c r="AE107" s="44"/>
+      <c r="AF107" s="44"/>
+      <c r="AG107" s="44"/>
+      <c r="AH107" s="44"/>
+      <c r="AI107" s="44"/>
+      <c r="AJ107" s="44"/>
+      <c r="AK107" s="44"/>
+      <c r="AL107" s="44"/>
+      <c r="AM107" s="45"/>
       <c r="AN107" s="7"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="14"/>
-      <c r="V108" s="17"/>
-      <c r="W108" s="14"/>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="17"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="15"/>
-      <c r="AF108" s="15"/>
-      <c r="AG108" s="15"/>
-      <c r="AH108" s="15"/>
-      <c r="AI108" s="15"/>
-      <c r="AJ108" s="15"/>
-      <c r="AK108" s="15"/>
-      <c r="AL108" s="15"/>
-      <c r="AM108" s="18"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
+      <c r="K108" s="45"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="44"/>
+      <c r="N108" s="45"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="44"/>
+      <c r="Q108" s="44"/>
+      <c r="R108" s="45"/>
+      <c r="S108" s="47"/>
+      <c r="T108" s="49"/>
+      <c r="U108" s="47"/>
+      <c r="V108" s="49"/>
+      <c r="W108" s="43"/>
+      <c r="X108" s="44"/>
+      <c r="Y108" s="44"/>
+      <c r="Z108" s="45"/>
+      <c r="AA108" s="43"/>
+      <c r="AB108" s="44"/>
+      <c r="AC108" s="45"/>
+      <c r="AD108" s="43"/>
+      <c r="AE108" s="44"/>
+      <c r="AF108" s="44"/>
+      <c r="AG108" s="44"/>
+      <c r="AH108" s="44"/>
+      <c r="AI108" s="44"/>
+      <c r="AJ108" s="44"/>
+      <c r="AK108" s="44"/>
+      <c r="AL108" s="44"/>
+      <c r="AM108" s="45"/>
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8065,7 +8559,329 @@
       <c r="AN109" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="337">
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="U78:V78"/>
+    <mergeCell ref="W78:Z78"/>
+    <mergeCell ref="AA78:AC78"/>
+    <mergeCell ref="AD78:AM78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="AA107:AC107"/>
+    <mergeCell ref="AA108:AC108"/>
+    <mergeCell ref="AD97:AM97"/>
+    <mergeCell ref="AD98:AM98"/>
+    <mergeCell ref="AD99:AM99"/>
+    <mergeCell ref="AD100:AM100"/>
+    <mergeCell ref="AD101:AM101"/>
+    <mergeCell ref="AD102:AM102"/>
+    <mergeCell ref="AD103:AM103"/>
+    <mergeCell ref="AD104:AM104"/>
+    <mergeCell ref="AD105:AM105"/>
+    <mergeCell ref="AD106:AM106"/>
+    <mergeCell ref="AD107:AM107"/>
+    <mergeCell ref="AD108:AM108"/>
+    <mergeCell ref="AA102:AC102"/>
+    <mergeCell ref="AA103:AC103"/>
+    <mergeCell ref="AA104:AC104"/>
+    <mergeCell ref="AA105:AC105"/>
+    <mergeCell ref="AA106:AC106"/>
+    <mergeCell ref="AA97:AC97"/>
+    <mergeCell ref="AA98:AC98"/>
+    <mergeCell ref="AA99:AC99"/>
+    <mergeCell ref="AA100:AC100"/>
+    <mergeCell ref="AA101:AC101"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="U107:V107"/>
+    <mergeCell ref="S108:T108"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="W97:Z97"/>
+    <mergeCell ref="W98:Z98"/>
+    <mergeCell ref="W99:Z99"/>
+    <mergeCell ref="W100:Z100"/>
+    <mergeCell ref="W101:Z101"/>
+    <mergeCell ref="W102:Z102"/>
+    <mergeCell ref="W103:Z103"/>
+    <mergeCell ref="W104:Z104"/>
+    <mergeCell ref="W105:Z105"/>
+    <mergeCell ref="W106:Z106"/>
+    <mergeCell ref="W107:Z107"/>
+    <mergeCell ref="W108:Z108"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="U105:V105"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="U106:V106"/>
+    <mergeCell ref="O107:R107"/>
+    <mergeCell ref="O108:R108"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:V98"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="U99:V99"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:V100"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="U101:V101"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="O103:R103"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="O105:R105"/>
+    <mergeCell ref="O106:R106"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="O101:R101"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="U96:V96"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="U88:V88"/>
+    <mergeCell ref="U89:V89"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="U83:V83"/>
+    <mergeCell ref="U84:V84"/>
+    <mergeCell ref="U85:V85"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="S96:T96"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="I45:AF45"/>
+    <mergeCell ref="D47:AF47"/>
+    <mergeCell ref="D50:AF50"/>
+    <mergeCell ref="D53:AF53"/>
+    <mergeCell ref="I51:AK51"/>
+    <mergeCell ref="D44:AF44"/>
+    <mergeCell ref="I60:AF60"/>
+    <mergeCell ref="I54:AF54"/>
+    <mergeCell ref="I57:AF57"/>
+    <mergeCell ref="D56:AF56"/>
+    <mergeCell ref="D59:AF59"/>
+    <mergeCell ref="AD92:AM92"/>
+    <mergeCell ref="AD93:AM93"/>
+    <mergeCell ref="AD94:AM94"/>
+    <mergeCell ref="AD95:AM95"/>
+    <mergeCell ref="AD96:AM96"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AA95:AC95"/>
+    <mergeCell ref="AA96:AC96"/>
+    <mergeCell ref="AD79:AM79"/>
+    <mergeCell ref="AD80:AM80"/>
+    <mergeCell ref="AD81:AM81"/>
+    <mergeCell ref="AD82:AM82"/>
+    <mergeCell ref="AD83:AM83"/>
+    <mergeCell ref="AD84:AM84"/>
+    <mergeCell ref="AD85:AM85"/>
+    <mergeCell ref="AD86:AM86"/>
+    <mergeCell ref="AD87:AM87"/>
+    <mergeCell ref="AD88:AM88"/>
+    <mergeCell ref="AD89:AM89"/>
+    <mergeCell ref="AD90:AM90"/>
+    <mergeCell ref="AD91:AM91"/>
+    <mergeCell ref="AA89:AC89"/>
+    <mergeCell ref="AA90:AC90"/>
+    <mergeCell ref="AA91:AC91"/>
+    <mergeCell ref="AA92:AC92"/>
+    <mergeCell ref="AA93:AC93"/>
+    <mergeCell ref="AA84:AC84"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AA86:AC86"/>
+    <mergeCell ref="AA87:AC87"/>
+    <mergeCell ref="AA88:AC88"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AA80:AC80"/>
+    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AA82:AC82"/>
+    <mergeCell ref="AA83:AC83"/>
+    <mergeCell ref="W92:Z92"/>
+    <mergeCell ref="W93:Z93"/>
+    <mergeCell ref="W94:Z94"/>
+    <mergeCell ref="W95:Z95"/>
+    <mergeCell ref="W96:Z96"/>
+    <mergeCell ref="O94:R94"/>
+    <mergeCell ref="O95:R95"/>
+    <mergeCell ref="O96:R96"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="W80:Z80"/>
+    <mergeCell ref="W81:Z81"/>
+    <mergeCell ref="W82:Z82"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="W84:Z84"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="W86:Z86"/>
+    <mergeCell ref="W87:Z87"/>
+    <mergeCell ref="W88:Z88"/>
+    <mergeCell ref="W89:Z89"/>
+    <mergeCell ref="W90:Z90"/>
+    <mergeCell ref="W91:Z91"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="O86:R86"/>
+    <mergeCell ref="O87:R87"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="O92:R92"/>
+    <mergeCell ref="O93:R93"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="I48:AF48"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E95B9BC-2884-4E7F-9C3C-94E19ABEB5E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C19F53-C19B-4969-A9F0-B233844514B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -476,11 +476,18 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>QUESTION</t>
+    <t>varchar</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>varchar</t>
+    <t>中島</t>
+    <rPh sb="0" eb="2">
+      <t>ナカジマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>required</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -901,6 +908,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,64 +1040,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1293,8 +1300,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1136037" y="2915773"/>
-          <a:ext cx="1657937" cy="502664"/>
+          <a:off x="1043215" y="2915773"/>
+          <a:ext cx="1538408" cy="502664"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1431,8 +1438,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1126512" y="3382156"/>
-          <a:ext cx="1657937" cy="520220"/>
+          <a:off x="1036865" y="3382156"/>
+          <a:ext cx="1538408" cy="520220"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1569,8 +1576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1002500" y="3886850"/>
-          <a:ext cx="1778774" cy="490523"/>
+          <a:off x="935265" y="3886850"/>
+          <a:ext cx="1633658" cy="487348"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -1905,8 +1912,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4875547" y="2971109"/>
-          <a:ext cx="1609939" cy="502664"/>
+          <a:off x="4483902" y="2971109"/>
+          <a:ext cx="1478643" cy="502664"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -2043,8 +2050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4878722" y="3418442"/>
-          <a:ext cx="1616289" cy="520220"/>
+          <a:off x="4490252" y="3418442"/>
+          <a:ext cx="1478643" cy="520220"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -3254,8 +3261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4796625" y="3937650"/>
-          <a:ext cx="1705189" cy="487348"/>
+          <a:off x="4404980" y="3937650"/>
+          <a:ext cx="1573893" cy="487348"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -3896,170 +3903,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U85" sqref="U85:V85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="3.625" style="1"/>
-    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="3.625" style="1"/>
+    <col min="1" max="6" width="3.6328125" style="1"/>
+    <col min="7" max="7" width="4.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="21" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="36" t="s">
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="30" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="51">
         <v>45083</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="32" t="s">
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33">
-        <v>45083</v>
-      </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53">
+        <v>45084</v>
+      </c>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="55"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="22" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="27"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="47"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5662,37 +5669,37 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="41"/>
-      <c r="AC44" s="41"/>
-      <c r="AD44" s="41"/>
-      <c r="AE44" s="41"/>
-      <c r="AF44" s="41"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
@@ -5711,32 +5718,32 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="41" t="s">
+      <c r="I45" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="41"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
@@ -5792,37 +5799,37 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
@@ -5839,32 +5846,32 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41"/>
-      <c r="AF48" s="41"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
       <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
@@ -5914,40 +5921,40 @@
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
     </row>
-    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="42"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="26"/>
       <c r="AG50" s="8"/>
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
@@ -5964,37 +5971,37 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="41" t="s">
+      <c r="I51" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="25"/>
+      <c r="AK51" s="25"/>
       <c r="AL51" s="8"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
@@ -6006,73 +6013,73 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="46"/>
-      <c r="AK52" s="46"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
       <c r="AL52" s="8"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
     </row>
-    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="42"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="26"/>
+      <c r="AA53" s="26"/>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="26"/>
       <c r="AG53" s="8"/>
       <c r="AH53" s="8"/>
       <c r="AI53" s="8"/>
@@ -6089,32 +6096,32 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="41"/>
-      <c r="AF54" s="41"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="25"/>
       <c r="AG54" s="8"/>
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
@@ -6164,40 +6171,40 @@
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
     </row>
-    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42"/>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="42"/>
-      <c r="AB56" s="42"/>
-      <c r="AC56" s="42"/>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="42"/>
-      <c r="AF56" s="42"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
       <c r="AG56" s="8"/>
       <c r="AH56" s="8"/>
       <c r="AI56" s="8"/>
@@ -6214,32 +6221,32 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="41" t="s">
+      <c r="I57" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="41"/>
-      <c r="AF57" s="41"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
       <c r="AG57" s="8"/>
       <c r="AH57" s="8"/>
       <c r="AI57" s="8"/>
@@ -6289,40 +6296,40 @@
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
     </row>
-    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="26"/>
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="26"/>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
       <c r="AI59" s="8"/>
@@ -6339,32 +6346,32 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="41"/>
-      <c r="AD60" s="41"/>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+      <c r="AF60" s="25"/>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
@@ -7070,1450 +7077,1452 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="54" t="s">
+      <c r="C78" s="17"/>
+      <c r="D78" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="54" t="s">
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="54" t="s">
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="55"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="54" t="s">
+      <c r="M78" s="15"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="55"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="54" t="s">
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="56"/>
-      <c r="U78" s="54" t="s">
+      <c r="T78" s="14"/>
+      <c r="U78" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="56"/>
-      <c r="W78" s="54" t="s">
+      <c r="V78" s="14"/>
+      <c r="W78" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="55"/>
-      <c r="Y78" s="55"/>
-      <c r="Z78" s="56"/>
-      <c r="AA78" s="54" t="s">
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="55"/>
-      <c r="AC78" s="56"/>
-      <c r="AD78" s="54" t="s">
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="55"/>
-      <c r="AI78" s="55"/>
-      <c r="AJ78" s="55"/>
-      <c r="AK78" s="55"/>
-      <c r="AL78" s="55"/>
-      <c r="AM78" s="56"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="15"/>
+      <c r="AL78" s="15"/>
+      <c r="AM78" s="14"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="50">
+      <c r="B79" s="30">
         <v>1</v>
       </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="47" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="47" t="s">
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="47" t="s">
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M79" s="48"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="P79" s="48"/>
-      <c r="Q79" s="48"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="47">
+      <c r="M79" s="27"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="21">
         <v>8</v>
       </c>
-      <c r="T79" s="49"/>
-      <c r="U79" s="47">
+      <c r="T79" s="22"/>
+      <c r="U79" s="21">
         <v>20</v>
       </c>
-      <c r="V79" s="49"/>
-      <c r="W79" s="47" t="s">
+      <c r="V79" s="22"/>
+      <c r="W79" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="X79" s="48"/>
-      <c r="Y79" s="48"/>
-      <c r="Z79" s="49"/>
-      <c r="AA79" s="47" t="s">
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="22"/>
+      <c r="AA79" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AB79" s="48"/>
-      <c r="AC79" s="49"/>
-      <c r="AD79" s="43"/>
-      <c r="AE79" s="44"/>
-      <c r="AF79" s="44"/>
-      <c r="AG79" s="44"/>
-      <c r="AH79" s="44"/>
-      <c r="AI79" s="44"/>
-      <c r="AJ79" s="44"/>
-      <c r="AK79" s="44"/>
-      <c r="AL79" s="44"/>
-      <c r="AM79" s="45"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="22"/>
+      <c r="AD79" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE79" s="19"/>
+      <c r="AF79" s="19"/>
+      <c r="AG79" s="19"/>
+      <c r="AH79" s="19"/>
+      <c r="AI79" s="19"/>
+      <c r="AJ79" s="19"/>
+      <c r="AK79" s="19"/>
+      <c r="AL79" s="19"/>
+      <c r="AM79" s="20"/>
       <c r="AN79" s="7"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="50">
+      <c r="B80" s="30">
         <v>2</v>
       </c>
-      <c r="C80" s="51"/>
-      <c r="D80" s="47" t="s">
+      <c r="C80" s="31"/>
+      <c r="D80" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="47" t="s">
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="47" t="s">
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M80" s="48"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="47">
+      <c r="M80" s="27"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="21">
         <v>8</v>
       </c>
-      <c r="T80" s="49"/>
-      <c r="U80" s="47">
+      <c r="T80" s="22"/>
+      <c r="U80" s="21">
         <v>20</v>
       </c>
-      <c r="V80" s="49"/>
-      <c r="W80" s="47" t="s">
+      <c r="V80" s="22"/>
+      <c r="W80" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="X80" s="48"/>
-      <c r="Y80" s="48"/>
-      <c r="Z80" s="49"/>
-      <c r="AA80" s="47" t="s">
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AB80" s="48"/>
-      <c r="AC80" s="49"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="44"/>
-      <c r="AF80" s="44"/>
-      <c r="AG80" s="44"/>
-      <c r="AH80" s="44"/>
-      <c r="AI80" s="44"/>
-      <c r="AJ80" s="44"/>
-      <c r="AK80" s="44"/>
-      <c r="AL80" s="44"/>
-      <c r="AM80" s="45"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="22"/>
+      <c r="AD80" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
+      <c r="AG80" s="19"/>
+      <c r="AH80" s="19"/>
+      <c r="AI80" s="19"/>
+      <c r="AJ80" s="19"/>
+      <c r="AK80" s="19"/>
+      <c r="AL80" s="19"/>
+      <c r="AM80" s="20"/>
       <c r="AN80" s="7"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
-      <c r="B81" s="50">
+      <c r="B81" s="30">
         <v>3</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="47" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="47" t="s">
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="47" t="s">
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="M81" s="48"/>
-      <c r="N81" s="49"/>
-      <c r="O81" s="47" t="s">
+      <c r="M81" s="27"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="P81" s="48"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="49"/>
-      <c r="S81" s="47"/>
-      <c r="T81" s="49"/>
-      <c r="U81" s="47"/>
-      <c r="V81" s="49"/>
-      <c r="W81" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="X81" s="48"/>
-      <c r="Y81" s="48"/>
-      <c r="Z81" s="49"/>
-      <c r="AA81" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB81" s="48"/>
-      <c r="AC81" s="49"/>
-      <c r="AD81" s="47" t="s">
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AE81" s="48"/>
-      <c r="AF81" s="48"/>
-      <c r="AG81" s="48"/>
-      <c r="AH81" s="48"/>
-      <c r="AI81" s="48"/>
-      <c r="AJ81" s="48"/>
-      <c r="AK81" s="48"/>
-      <c r="AL81" s="48"/>
-      <c r="AM81" s="49"/>
+      <c r="AE81" s="27"/>
+      <c r="AF81" s="27"/>
+      <c r="AG81" s="27"/>
+      <c r="AH81" s="27"/>
+      <c r="AI81" s="27"/>
+      <c r="AJ81" s="27"/>
+      <c r="AK81" s="27"/>
+      <c r="AL81" s="27"/>
+      <c r="AM81" s="22"/>
       <c r="AN81" s="7"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
-      <c r="B82" s="50">
+      <c r="B82" s="30">
         <v>4</v>
       </c>
-      <c r="C82" s="51"/>
-      <c r="D82" s="47" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="47" t="s">
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="47" t="s">
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M82" s="48"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="47">
+      <c r="M82" s="27"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="21">
         <v>1</v>
       </c>
-      <c r="T82" s="49"/>
-      <c r="U82" s="47">
+      <c r="T82" s="22"/>
+      <c r="U82" s="21">
         <v>20</v>
       </c>
-      <c r="V82" s="49"/>
-      <c r="W82" s="47" t="s">
+      <c r="V82" s="22"/>
+      <c r="W82" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="X82" s="48"/>
-      <c r="Y82" s="48"/>
-      <c r="Z82" s="49"/>
-      <c r="AA82" s="47" t="s">
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="49"/>
-      <c r="AD82" s="43"/>
-      <c r="AE82" s="44"/>
-      <c r="AF82" s="44"/>
-      <c r="AG82" s="44"/>
-      <c r="AH82" s="44"/>
-      <c r="AI82" s="44"/>
-      <c r="AJ82" s="44"/>
-      <c r="AK82" s="44"/>
-      <c r="AL82" s="44"/>
-      <c r="AM82" s="45"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE82" s="19"/>
+      <c r="AF82" s="19"/>
+      <c r="AG82" s="19"/>
+      <c r="AH82" s="19"/>
+      <c r="AI82" s="19"/>
+      <c r="AJ82" s="19"/>
+      <c r="AK82" s="19"/>
+      <c r="AL82" s="19"/>
+      <c r="AM82" s="20"/>
       <c r="AN82" s="7"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="50">
+      <c r="B83" s="30">
         <v>5</v>
       </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="47" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="47" t="s">
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="47" t="s">
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M83" s="48"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="47" t="s">
+      <c r="M83" s="27"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P83" s="48"/>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="49"/>
-      <c r="W83" s="47"/>
-      <c r="X83" s="48"/>
-      <c r="Y83" s="48"/>
-      <c r="Z83" s="49"/>
-      <c r="AA83" s="47"/>
-      <c r="AB83" s="48"/>
-      <c r="AC83" s="49"/>
-      <c r="AD83" s="43"/>
-      <c r="AE83" s="44"/>
-      <c r="AF83" s="44"/>
-      <c r="AG83" s="44"/>
-      <c r="AH83" s="44"/>
-      <c r="AI83" s="44"/>
-      <c r="AJ83" s="44"/>
-      <c r="AK83" s="44"/>
-      <c r="AL83" s="44"/>
-      <c r="AM83" s="45"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="21"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="18"/>
+      <c r="AE83" s="19"/>
+      <c r="AF83" s="19"/>
+      <c r="AG83" s="19"/>
+      <c r="AH83" s="19"/>
+      <c r="AI83" s="19"/>
+      <c r="AJ83" s="19"/>
+      <c r="AK83" s="19"/>
+      <c r="AL83" s="19"/>
+      <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="50">
+      <c r="B84" s="30">
         <v>6</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="47" t="s">
+      <c r="C84" s="31"/>
+      <c r="D84" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="47" t="s">
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="47" t="s">
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M84" s="48"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="47" t="s">
+      <c r="M84" s="27"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P84" s="48"/>
-      <c r="Q84" s="48"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="47"/>
-      <c r="T84" s="49"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="49"/>
-      <c r="W84" s="47"/>
-      <c r="X84" s="48"/>
-      <c r="Y84" s="48"/>
-      <c r="Z84" s="49"/>
-      <c r="AA84" s="47"/>
-      <c r="AB84" s="48"/>
-      <c r="AC84" s="49"/>
-      <c r="AD84" s="47"/>
-      <c r="AE84" s="48"/>
-      <c r="AF84" s="48"/>
-      <c r="AG84" s="48"/>
-      <c r="AH84" s="48"/>
-      <c r="AI84" s="48"/>
-      <c r="AJ84" s="48"/>
-      <c r="AK84" s="48"/>
-      <c r="AL84" s="48"/>
-      <c r="AM84" s="49"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="21"/>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
+      <c r="AG84" s="27"/>
+      <c r="AH84" s="27"/>
+      <c r="AI84" s="27"/>
+      <c r="AJ84" s="27"/>
+      <c r="AK84" s="27"/>
+      <c r="AL84" s="27"/>
+      <c r="AM84" s="22"/>
       <c r="AN84" s="7"/>
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
-      <c r="B85" s="50">
+      <c r="B85" s="30">
         <v>7</v>
       </c>
-      <c r="C85" s="51"/>
-      <c r="D85" s="47" t="s">
+      <c r="C85" s="31"/>
+      <c r="D85" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="47" t="s">
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="47" t="s">
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M85" s="48"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="47"/>
-      <c r="P85" s="48"/>
-      <c r="Q85" s="48"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="47"/>
-      <c r="T85" s="49"/>
-      <c r="U85" s="47"/>
-      <c r="V85" s="49"/>
-      <c r="W85" s="47"/>
-      <c r="X85" s="48"/>
-      <c r="Y85" s="48"/>
-      <c r="Z85" s="49"/>
-      <c r="AA85" s="47"/>
-      <c r="AB85" s="48"/>
-      <c r="AC85" s="49"/>
-      <c r="AD85" s="43"/>
-      <c r="AE85" s="44"/>
-      <c r="AF85" s="44"/>
-      <c r="AG85" s="44"/>
-      <c r="AH85" s="44"/>
-      <c r="AI85" s="44"/>
-      <c r="AJ85" s="44"/>
-      <c r="AK85" s="44"/>
-      <c r="AL85" s="44"/>
-      <c r="AM85" s="45"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="18"/>
+      <c r="AE85" s="19"/>
+      <c r="AF85" s="19"/>
+      <c r="AG85" s="19"/>
+      <c r="AH85" s="19"/>
+      <c r="AI85" s="19"/>
+      <c r="AJ85" s="19"/>
+      <c r="AK85" s="19"/>
+      <c r="AL85" s="19"/>
+      <c r="AM85" s="20"/>
       <c r="AN85" s="7"/>
     </row>
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
-      <c r="B86" s="50">
+      <c r="B86" s="30">
         <v>8</v>
       </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="47" t="s">
+      <c r="C86" s="31"/>
+      <c r="D86" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="47" t="s">
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="47" t="s">
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="M86" s="48"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="47"/>
-      <c r="P86" s="48"/>
-      <c r="Q86" s="48"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="47"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="47"/>
-      <c r="V86" s="49"/>
-      <c r="W86" s="47"/>
-      <c r="X86" s="48"/>
-      <c r="Y86" s="48"/>
-      <c r="Z86" s="49"/>
-      <c r="AA86" s="47"/>
-      <c r="AB86" s="48"/>
-      <c r="AC86" s="49"/>
-      <c r="AD86" s="43"/>
-      <c r="AE86" s="44"/>
-      <c r="AF86" s="44"/>
-      <c r="AG86" s="44"/>
-      <c r="AH86" s="44"/>
-      <c r="AI86" s="44"/>
-      <c r="AJ86" s="44"/>
-      <c r="AK86" s="44"/>
-      <c r="AL86" s="44"/>
-      <c r="AM86" s="45"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="22"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="22"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="19"/>
+      <c r="AI86" s="19"/>
+      <c r="AJ86" s="19"/>
+      <c r="AK86" s="19"/>
+      <c r="AL86" s="19"/>
+      <c r="AM86" s="20"/>
       <c r="AN86" s="7"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
-      <c r="B87" s="39">
+      <c r="B87" s="28">
         <v>9</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="45"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="49"/>
-      <c r="U87" s="47"/>
-      <c r="V87" s="49"/>
-      <c r="W87" s="43"/>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="45"/>
-      <c r="AA87" s="43"/>
-      <c r="AB87" s="44"/>
-      <c r="AC87" s="45"/>
-      <c r="AD87" s="43"/>
-      <c r="AE87" s="44"/>
-      <c r="AF87" s="44"/>
-      <c r="AG87" s="44"/>
-      <c r="AH87" s="44"/>
-      <c r="AI87" s="44"/>
-      <c r="AJ87" s="44"/>
-      <c r="AK87" s="44"/>
-      <c r="AL87" s="44"/>
-      <c r="AM87" s="45"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="18"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="18"/>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="20"/>
+      <c r="AD87" s="18"/>
+      <c r="AE87" s="19"/>
+      <c r="AF87" s="19"/>
+      <c r="AG87" s="19"/>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="19"/>
+      <c r="AJ87" s="19"/>
+      <c r="AK87" s="19"/>
+      <c r="AL87" s="19"/>
+      <c r="AM87" s="20"/>
       <c r="AN87" s="7"/>
     </row>
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
-      <c r="B88" s="39">
+      <c r="B88" s="28">
         <v>10</v>
       </c>
-      <c r="C88" s="40"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="45"/>
-      <c r="S88" s="47"/>
-      <c r="T88" s="49"/>
-      <c r="U88" s="47"/>
-      <c r="V88" s="49"/>
-      <c r="W88" s="43"/>
-      <c r="X88" s="44"/>
-      <c r="Y88" s="44"/>
-      <c r="Z88" s="45"/>
-      <c r="AA88" s="43"/>
-      <c r="AB88" s="44"/>
-      <c r="AC88" s="45"/>
-      <c r="AD88" s="43"/>
-      <c r="AE88" s="44"/>
-      <c r="AF88" s="44"/>
-      <c r="AG88" s="44"/>
-      <c r="AH88" s="44"/>
-      <c r="AI88" s="44"/>
-      <c r="AJ88" s="44"/>
-      <c r="AK88" s="44"/>
-      <c r="AL88" s="44"/>
-      <c r="AM88" s="45"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="18"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="18"/>
+      <c r="AE88" s="19"/>
+      <c r="AF88" s="19"/>
+      <c r="AG88" s="19"/>
+      <c r="AH88" s="19"/>
+      <c r="AI88" s="19"/>
+      <c r="AJ88" s="19"/>
+      <c r="AK88" s="19"/>
+      <c r="AL88" s="19"/>
+      <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
-      <c r="B89" s="39">
+      <c r="B89" s="28">
         <v>11</v>
       </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="45"/>
-      <c r="S89" s="47"/>
-      <c r="T89" s="49"/>
-      <c r="U89" s="47"/>
-      <c r="V89" s="49"/>
-      <c r="W89" s="43"/>
-      <c r="X89" s="44"/>
-      <c r="Y89" s="44"/>
-      <c r="Z89" s="45"/>
-      <c r="AA89" s="43"/>
-      <c r="AB89" s="44"/>
-      <c r="AC89" s="45"/>
-      <c r="AD89" s="43"/>
-      <c r="AE89" s="44"/>
-      <c r="AF89" s="44"/>
-      <c r="AG89" s="44"/>
-      <c r="AH89" s="44"/>
-      <c r="AI89" s="44"/>
-      <c r="AJ89" s="44"/>
-      <c r="AK89" s="44"/>
-      <c r="AL89" s="44"/>
-      <c r="AM89" s="45"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="18"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="20"/>
+      <c r="AA89" s="18"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="18"/>
+      <c r="AE89" s="19"/>
+      <c r="AF89" s="19"/>
+      <c r="AG89" s="19"/>
+      <c r="AH89" s="19"/>
+      <c r="AI89" s="19"/>
+      <c r="AJ89" s="19"/>
+      <c r="AK89" s="19"/>
+      <c r="AL89" s="19"/>
+      <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
     </row>
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
-      <c r="B90" s="39">
+      <c r="B90" s="28">
         <v>12</v>
       </c>
-      <c r="C90" s="40"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="45"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="49"/>
-      <c r="U90" s="47"/>
-      <c r="V90" s="49"/>
-      <c r="W90" s="43"/>
-      <c r="X90" s="44"/>
-      <c r="Y90" s="44"/>
-      <c r="Z90" s="45"/>
-      <c r="AA90" s="43"/>
-      <c r="AB90" s="44"/>
-      <c r="AC90" s="45"/>
-      <c r="AD90" s="43"/>
-      <c r="AE90" s="44"/>
-      <c r="AF90" s="44"/>
-      <c r="AG90" s="44"/>
-      <c r="AH90" s="44"/>
-      <c r="AI90" s="44"/>
-      <c r="AJ90" s="44"/>
-      <c r="AK90" s="44"/>
-      <c r="AL90" s="44"/>
-      <c r="AM90" s="45"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="19"/>
+      <c r="Y90" s="19"/>
+      <c r="Z90" s="20"/>
+      <c r="AA90" s="18"/>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="20"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="19"/>
+      <c r="AF90" s="19"/>
+      <c r="AG90" s="19"/>
+      <c r="AH90" s="19"/>
+      <c r="AI90" s="19"/>
+      <c r="AJ90" s="19"/>
+      <c r="AK90" s="19"/>
+      <c r="AL90" s="19"/>
+      <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
     </row>
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
-      <c r="B91" s="39">
+      <c r="B91" s="28">
         <v>13</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="45"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="45"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="49"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="49"/>
-      <c r="W91" s="43"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="45"/>
-      <c r="AA91" s="43"/>
-      <c r="AB91" s="44"/>
-      <c r="AC91" s="45"/>
-      <c r="AD91" s="43"/>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="44"/>
-      <c r="AG91" s="44"/>
-      <c r="AH91" s="44"/>
-      <c r="AI91" s="44"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="44"/>
-      <c r="AL91" s="44"/>
-      <c r="AM91" s="45"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="19"/>
+      <c r="Z91" s="20"/>
+      <c r="AA91" s="18"/>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="20"/>
+      <c r="AD91" s="18"/>
+      <c r="AE91" s="19"/>
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="19"/>
+      <c r="AH91" s="19"/>
+      <c r="AI91" s="19"/>
+      <c r="AJ91" s="19"/>
+      <c r="AK91" s="19"/>
+      <c r="AL91" s="19"/>
+      <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
     </row>
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
-      <c r="B92" s="39">
+      <c r="B92" s="28">
         <v>14</v>
       </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="45"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="49"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="49"/>
-      <c r="W92" s="43"/>
-      <c r="X92" s="44"/>
-      <c r="Y92" s="44"/>
-      <c r="Z92" s="45"/>
-      <c r="AA92" s="43"/>
-      <c r="AB92" s="44"/>
-      <c r="AC92" s="45"/>
-      <c r="AD92" s="43"/>
-      <c r="AE92" s="44"/>
-      <c r="AF92" s="44"/>
-      <c r="AG92" s="44"/>
-      <c r="AH92" s="44"/>
-      <c r="AI92" s="44"/>
-      <c r="AJ92" s="44"/>
-      <c r="AK92" s="44"/>
-      <c r="AL92" s="44"/>
-      <c r="AM92" s="45"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="19"/>
+      <c r="Y92" s="19"/>
+      <c r="Z92" s="20"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="19"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="19"/>
+      <c r="AF92" s="19"/>
+      <c r="AG92" s="19"/>
+      <c r="AH92" s="19"/>
+      <c r="AI92" s="19"/>
+      <c r="AJ92" s="19"/>
+      <c r="AK92" s="19"/>
+      <c r="AL92" s="19"/>
+      <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
     </row>
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
-      <c r="B93" s="39">
+      <c r="B93" s="28">
         <v>15</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="45"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="45"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="49"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="49"/>
-      <c r="W93" s="43"/>
-      <c r="X93" s="44"/>
-      <c r="Y93" s="44"/>
-      <c r="Z93" s="45"/>
-      <c r="AA93" s="43"/>
-      <c r="AB93" s="44"/>
-      <c r="AC93" s="45"/>
-      <c r="AD93" s="43"/>
-      <c r="AE93" s="44"/>
-      <c r="AF93" s="44"/>
-      <c r="AG93" s="44"/>
-      <c r="AH93" s="44"/>
-      <c r="AI93" s="44"/>
-      <c r="AJ93" s="44"/>
-      <c r="AK93" s="44"/>
-      <c r="AL93" s="44"/>
-      <c r="AM93" s="45"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="22"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="22"/>
+      <c r="W93" s="18"/>
+      <c r="X93" s="19"/>
+      <c r="Y93" s="19"/>
+      <c r="Z93" s="20"/>
+      <c r="AA93" s="18"/>
+      <c r="AB93" s="19"/>
+      <c r="AC93" s="20"/>
+      <c r="AD93" s="18"/>
+      <c r="AE93" s="19"/>
+      <c r="AF93" s="19"/>
+      <c r="AG93" s="19"/>
+      <c r="AH93" s="19"/>
+      <c r="AI93" s="19"/>
+      <c r="AJ93" s="19"/>
+      <c r="AK93" s="19"/>
+      <c r="AL93" s="19"/>
+      <c r="AM93" s="20"/>
       <c r="AN93" s="7"/>
     </row>
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
-      <c r="B94" s="39">
+      <c r="B94" s="28">
         <v>16</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="45"/>
-      <c r="S94" s="47"/>
-      <c r="T94" s="49"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="49"/>
-      <c r="W94" s="43"/>
-      <c r="X94" s="44"/>
-      <c r="Y94" s="44"/>
-      <c r="Z94" s="45"/>
-      <c r="AA94" s="43"/>
-      <c r="AB94" s="44"/>
-      <c r="AC94" s="45"/>
-      <c r="AD94" s="43"/>
-      <c r="AE94" s="44"/>
-      <c r="AF94" s="44"/>
-      <c r="AG94" s="44"/>
-      <c r="AH94" s="44"/>
-      <c r="AI94" s="44"/>
-      <c r="AJ94" s="44"/>
-      <c r="AK94" s="44"/>
-      <c r="AL94" s="44"/>
-      <c r="AM94" s="45"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="22"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="20"/>
+      <c r="AA94" s="18"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="20"/>
+      <c r="AD94" s="18"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="19"/>
+      <c r="AH94" s="19"/>
+      <c r="AI94" s="19"/>
+      <c r="AJ94" s="19"/>
+      <c r="AK94" s="19"/>
+      <c r="AL94" s="19"/>
+      <c r="AM94" s="20"/>
       <c r="AN94" s="7"/>
     </row>
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
-      <c r="B95" s="39">
+      <c r="B95" s="28">
         <v>17</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="45"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="49"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="49"/>
-      <c r="W95" s="43"/>
-      <c r="X95" s="44"/>
-      <c r="Y95" s="44"/>
-      <c r="Z95" s="45"/>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="44"/>
-      <c r="AC95" s="45"/>
-      <c r="AD95" s="43"/>
-      <c r="AE95" s="44"/>
-      <c r="AF95" s="44"/>
-      <c r="AG95" s="44"/>
-      <c r="AH95" s="44"/>
-      <c r="AI95" s="44"/>
-      <c r="AJ95" s="44"/>
-      <c r="AK95" s="44"/>
-      <c r="AL95" s="44"/>
-      <c r="AM95" s="45"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="21"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="21"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="20"/>
+      <c r="AA95" s="18"/>
+      <c r="AB95" s="19"/>
+      <c r="AC95" s="20"/>
+      <c r="AD95" s="18"/>
+      <c r="AE95" s="19"/>
+      <c r="AF95" s="19"/>
+      <c r="AG95" s="19"/>
+      <c r="AH95" s="19"/>
+      <c r="AI95" s="19"/>
+      <c r="AJ95" s="19"/>
+      <c r="AK95" s="19"/>
+      <c r="AL95" s="19"/>
+      <c r="AM95" s="20"/>
       <c r="AN95" s="7"/>
     </row>
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
-      <c r="B96" s="39">
+      <c r="B96" s="28">
         <v>18</v>
       </c>
-      <c r="C96" s="40"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="45"/>
-      <c r="S96" s="47"/>
-      <c r="T96" s="49"/>
-      <c r="U96" s="47"/>
-      <c r="V96" s="49"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="44"/>
-      <c r="Y96" s="44"/>
-      <c r="Z96" s="45"/>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="44"/>
-      <c r="AC96" s="45"/>
-      <c r="AD96" s="43"/>
-      <c r="AE96" s="44"/>
-      <c r="AF96" s="44"/>
-      <c r="AG96" s="44"/>
-      <c r="AH96" s="44"/>
-      <c r="AI96" s="44"/>
-      <c r="AJ96" s="44"/>
-      <c r="AK96" s="44"/>
-      <c r="AL96" s="44"/>
-      <c r="AM96" s="45"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="22"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="19"/>
+      <c r="Y96" s="19"/>
+      <c r="Z96" s="20"/>
+      <c r="AA96" s="18"/>
+      <c r="AB96" s="19"/>
+      <c r="AC96" s="20"/>
+      <c r="AD96" s="18"/>
+      <c r="AE96" s="19"/>
+      <c r="AF96" s="19"/>
+      <c r="AG96" s="19"/>
+      <c r="AH96" s="19"/>
+      <c r="AI96" s="19"/>
+      <c r="AJ96" s="19"/>
+      <c r="AK96" s="19"/>
+      <c r="AL96" s="19"/>
+      <c r="AM96" s="20"/>
       <c r="AN96" s="7"/>
     </row>
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="44"/>
-      <c r="N97" s="45"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="44"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="45"/>
-      <c r="S97" s="47"/>
-      <c r="T97" s="49"/>
-      <c r="U97" s="47"/>
-      <c r="V97" s="49"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="44"/>
-      <c r="Y97" s="44"/>
-      <c r="Z97" s="45"/>
-      <c r="AA97" s="43"/>
-      <c r="AB97" s="44"/>
-      <c r="AC97" s="45"/>
-      <c r="AD97" s="43"/>
-      <c r="AE97" s="44"/>
-      <c r="AF97" s="44"/>
-      <c r="AG97" s="44"/>
-      <c r="AH97" s="44"/>
-      <c r="AI97" s="44"/>
-      <c r="AJ97" s="44"/>
-      <c r="AK97" s="44"/>
-      <c r="AL97" s="44"/>
-      <c r="AM97" s="45"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="18"/>
+      <c r="X97" s="19"/>
+      <c r="Y97" s="19"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="18"/>
+      <c r="AB97" s="19"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="18"/>
+      <c r="AE97" s="19"/>
+      <c r="AF97" s="19"/>
+      <c r="AG97" s="19"/>
+      <c r="AH97" s="19"/>
+      <c r="AI97" s="19"/>
+      <c r="AJ97" s="19"/>
+      <c r="AK97" s="19"/>
+      <c r="AL97" s="19"/>
+      <c r="AM97" s="20"/>
       <c r="AN97" s="7"/>
     </row>
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="44"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="45"/>
-      <c r="S98" s="47"/>
-      <c r="T98" s="49"/>
-      <c r="U98" s="47"/>
-      <c r="V98" s="49"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="44"/>
-      <c r="Y98" s="44"/>
-      <c r="Z98" s="45"/>
-      <c r="AA98" s="43"/>
-      <c r="AB98" s="44"/>
-      <c r="AC98" s="45"/>
-      <c r="AD98" s="43"/>
-      <c r="AE98" s="44"/>
-      <c r="AF98" s="44"/>
-      <c r="AG98" s="44"/>
-      <c r="AH98" s="44"/>
-      <c r="AI98" s="44"/>
-      <c r="AJ98" s="44"/>
-      <c r="AK98" s="44"/>
-      <c r="AL98" s="44"/>
-      <c r="AM98" s="45"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="18"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="20"/>
+      <c r="AA98" s="18"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="20"/>
+      <c r="AD98" s="18"/>
+      <c r="AE98" s="19"/>
+      <c r="AF98" s="19"/>
+      <c r="AG98" s="19"/>
+      <c r="AH98" s="19"/>
+      <c r="AI98" s="19"/>
+      <c r="AJ98" s="19"/>
+      <c r="AK98" s="19"/>
+      <c r="AL98" s="19"/>
+      <c r="AM98" s="20"/>
       <c r="AN98" s="7"/>
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="45"/>
-      <c r="S99" s="47"/>
-      <c r="T99" s="49"/>
-      <c r="U99" s="47"/>
-      <c r="V99" s="49"/>
-      <c r="W99" s="43"/>
-      <c r="X99" s="44"/>
-      <c r="Y99" s="44"/>
-      <c r="Z99" s="45"/>
-      <c r="AA99" s="43"/>
-      <c r="AB99" s="44"/>
-      <c r="AC99" s="45"/>
-      <c r="AD99" s="43"/>
-      <c r="AE99" s="44"/>
-      <c r="AF99" s="44"/>
-      <c r="AG99" s="44"/>
-      <c r="AH99" s="44"/>
-      <c r="AI99" s="44"/>
-      <c r="AJ99" s="44"/>
-      <c r="AK99" s="44"/>
-      <c r="AL99" s="44"/>
-      <c r="AM99" s="45"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="18"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="20"/>
+      <c r="AA99" s="18"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="20"/>
+      <c r="AD99" s="18"/>
+      <c r="AE99" s="19"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="19"/>
+      <c r="AJ99" s="19"/>
+      <c r="AK99" s="19"/>
+      <c r="AL99" s="19"/>
+      <c r="AM99" s="20"/>
       <c r="AN99" s="7"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="44"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="45"/>
-      <c r="S100" s="47"/>
-      <c r="T100" s="49"/>
-      <c r="U100" s="47"/>
-      <c r="V100" s="49"/>
-      <c r="W100" s="43"/>
-      <c r="X100" s="44"/>
-      <c r="Y100" s="44"/>
-      <c r="Z100" s="45"/>
-      <c r="AA100" s="43"/>
-      <c r="AB100" s="44"/>
-      <c r="AC100" s="45"/>
-      <c r="AD100" s="43"/>
-      <c r="AE100" s="44"/>
-      <c r="AF100" s="44"/>
-      <c r="AG100" s="44"/>
-      <c r="AH100" s="44"/>
-      <c r="AI100" s="44"/>
-      <c r="AJ100" s="44"/>
-      <c r="AK100" s="44"/>
-      <c r="AL100" s="44"/>
-      <c r="AM100" s="45"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="18"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="20"/>
+      <c r="AA100" s="18"/>
+      <c r="AB100" s="19"/>
+      <c r="AC100" s="20"/>
+      <c r="AD100" s="18"/>
+      <c r="AE100" s="19"/>
+      <c r="AF100" s="19"/>
+      <c r="AG100" s="19"/>
+      <c r="AH100" s="19"/>
+      <c r="AI100" s="19"/>
+      <c r="AJ100" s="19"/>
+      <c r="AK100" s="19"/>
+      <c r="AL100" s="19"/>
+      <c r="AM100" s="20"/>
       <c r="AN100" s="7"/>
     </row>
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="43"/>
-      <c r="M101" s="44"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="43"/>
-      <c r="P101" s="44"/>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="45"/>
-      <c r="S101" s="47"/>
-      <c r="T101" s="49"/>
-      <c r="U101" s="47"/>
-      <c r="V101" s="49"/>
-      <c r="W101" s="43"/>
-      <c r="X101" s="44"/>
-      <c r="Y101" s="44"/>
-      <c r="Z101" s="45"/>
-      <c r="AA101" s="43"/>
-      <c r="AB101" s="44"/>
-      <c r="AC101" s="45"/>
-      <c r="AD101" s="43"/>
-      <c r="AE101" s="44"/>
-      <c r="AF101" s="44"/>
-      <c r="AG101" s="44"/>
-      <c r="AH101" s="44"/>
-      <c r="AI101" s="44"/>
-      <c r="AJ101" s="44"/>
-      <c r="AK101" s="44"/>
-      <c r="AL101" s="44"/>
-      <c r="AM101" s="45"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="22"/>
+      <c r="W101" s="18"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="19"/>
+      <c r="Z101" s="20"/>
+      <c r="AA101" s="18"/>
+      <c r="AB101" s="19"/>
+      <c r="AC101" s="20"/>
+      <c r="AD101" s="18"/>
+      <c r="AE101" s="19"/>
+      <c r="AF101" s="19"/>
+      <c r="AG101" s="19"/>
+      <c r="AH101" s="19"/>
+      <c r="AI101" s="19"/>
+      <c r="AJ101" s="19"/>
+      <c r="AK101" s="19"/>
+      <c r="AL101" s="19"/>
+      <c r="AM101" s="20"/>
       <c r="AN101" s="7"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="43"/>
-      <c r="M102" s="44"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="43"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="45"/>
-      <c r="S102" s="47"/>
-      <c r="T102" s="49"/>
-      <c r="U102" s="47"/>
-      <c r="V102" s="49"/>
-      <c r="W102" s="43"/>
-      <c r="X102" s="44"/>
-      <c r="Y102" s="44"/>
-      <c r="Z102" s="45"/>
-      <c r="AA102" s="43"/>
-      <c r="AB102" s="44"/>
-      <c r="AC102" s="45"/>
-      <c r="AD102" s="43"/>
-      <c r="AE102" s="44"/>
-      <c r="AF102" s="44"/>
-      <c r="AG102" s="44"/>
-      <c r="AH102" s="44"/>
-      <c r="AI102" s="44"/>
-      <c r="AJ102" s="44"/>
-      <c r="AK102" s="44"/>
-      <c r="AL102" s="44"/>
-      <c r="AM102" s="45"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="22"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="22"/>
+      <c r="W102" s="18"/>
+      <c r="X102" s="19"/>
+      <c r="Y102" s="19"/>
+      <c r="Z102" s="20"/>
+      <c r="AA102" s="18"/>
+      <c r="AB102" s="19"/>
+      <c r="AC102" s="20"/>
+      <c r="AD102" s="18"/>
+      <c r="AE102" s="19"/>
+      <c r="AF102" s="19"/>
+      <c r="AG102" s="19"/>
+      <c r="AH102" s="19"/>
+      <c r="AI102" s="19"/>
+      <c r="AJ102" s="19"/>
+      <c r="AK102" s="19"/>
+      <c r="AL102" s="19"/>
+      <c r="AM102" s="20"/>
       <c r="AN102" s="7"/>
     </row>
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="45"/>
-      <c r="O103" s="43"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="44"/>
-      <c r="R103" s="45"/>
-      <c r="S103" s="47"/>
-      <c r="T103" s="49"/>
-      <c r="U103" s="47"/>
-      <c r="V103" s="49"/>
-      <c r="W103" s="43"/>
-      <c r="X103" s="44"/>
-      <c r="Y103" s="44"/>
-      <c r="Z103" s="45"/>
-      <c r="AA103" s="43"/>
-      <c r="AB103" s="44"/>
-      <c r="AC103" s="45"/>
-      <c r="AD103" s="43"/>
-      <c r="AE103" s="44"/>
-      <c r="AF103" s="44"/>
-      <c r="AG103" s="44"/>
-      <c r="AH103" s="44"/>
-      <c r="AI103" s="44"/>
-      <c r="AJ103" s="44"/>
-      <c r="AK103" s="44"/>
-      <c r="AL103" s="44"/>
-      <c r="AM103" s="45"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="18"/>
+      <c r="X103" s="19"/>
+      <c r="Y103" s="19"/>
+      <c r="Z103" s="20"/>
+      <c r="AA103" s="18"/>
+      <c r="AB103" s="19"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="18"/>
+      <c r="AE103" s="19"/>
+      <c r="AF103" s="19"/>
+      <c r="AG103" s="19"/>
+      <c r="AH103" s="19"/>
+      <c r="AI103" s="19"/>
+      <c r="AJ103" s="19"/>
+      <c r="AK103" s="19"/>
+      <c r="AL103" s="19"/>
+      <c r="AM103" s="20"/>
       <c r="AN103" s="7"/>
     </row>
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="45"/>
-      <c r="O104" s="43"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="45"/>
-      <c r="S104" s="47"/>
-      <c r="T104" s="49"/>
-      <c r="U104" s="47"/>
-      <c r="V104" s="49"/>
-      <c r="W104" s="43"/>
-      <c r="X104" s="44"/>
-      <c r="Y104" s="44"/>
-      <c r="Z104" s="45"/>
-      <c r="AA104" s="43"/>
-      <c r="AB104" s="44"/>
-      <c r="AC104" s="45"/>
-      <c r="AD104" s="43"/>
-      <c r="AE104" s="44"/>
-      <c r="AF104" s="44"/>
-      <c r="AG104" s="44"/>
-      <c r="AH104" s="44"/>
-      <c r="AI104" s="44"/>
-      <c r="AJ104" s="44"/>
-      <c r="AK104" s="44"/>
-      <c r="AL104" s="44"/>
-      <c r="AM104" s="45"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="18"/>
+      <c r="X104" s="19"/>
+      <c r="Y104" s="19"/>
+      <c r="Z104" s="20"/>
+      <c r="AA104" s="18"/>
+      <c r="AB104" s="19"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="18"/>
+      <c r="AE104" s="19"/>
+      <c r="AF104" s="19"/>
+      <c r="AG104" s="19"/>
+      <c r="AH104" s="19"/>
+      <c r="AI104" s="19"/>
+      <c r="AJ104" s="19"/>
+      <c r="AK104" s="19"/>
+      <c r="AL104" s="19"/>
+      <c r="AM104" s="20"/>
       <c r="AN104" s="7"/>
     </row>
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="45"/>
-      <c r="O105" s="43"/>
-      <c r="P105" s="44"/>
-      <c r="Q105" s="44"/>
-      <c r="R105" s="45"/>
-      <c r="S105" s="47"/>
-      <c r="T105" s="49"/>
-      <c r="U105" s="47"/>
-      <c r="V105" s="49"/>
-      <c r="W105" s="43"/>
-      <c r="X105" s="44"/>
-      <c r="Y105" s="44"/>
-      <c r="Z105" s="45"/>
-      <c r="AA105" s="43"/>
-      <c r="AB105" s="44"/>
-      <c r="AC105" s="45"/>
-      <c r="AD105" s="43"/>
-      <c r="AE105" s="44"/>
-      <c r="AF105" s="44"/>
-      <c r="AG105" s="44"/>
-      <c r="AH105" s="44"/>
-      <c r="AI105" s="44"/>
-      <c r="AJ105" s="44"/>
-      <c r="AK105" s="44"/>
-      <c r="AL105" s="44"/>
-      <c r="AM105" s="45"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="18"/>
+      <c r="X105" s="19"/>
+      <c r="Y105" s="19"/>
+      <c r="Z105" s="20"/>
+      <c r="AA105" s="18"/>
+      <c r="AB105" s="19"/>
+      <c r="AC105" s="20"/>
+      <c r="AD105" s="18"/>
+      <c r="AE105" s="19"/>
+      <c r="AF105" s="19"/>
+      <c r="AG105" s="19"/>
+      <c r="AH105" s="19"/>
+      <c r="AI105" s="19"/>
+      <c r="AJ105" s="19"/>
+      <c r="AK105" s="19"/>
+      <c r="AL105" s="19"/>
+      <c r="AM105" s="20"/>
       <c r="AN105" s="7"/>
     </row>
     <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="44"/>
-      <c r="N106" s="45"/>
-      <c r="O106" s="43"/>
-      <c r="P106" s="44"/>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="45"/>
-      <c r="S106" s="47"/>
-      <c r="T106" s="49"/>
-      <c r="U106" s="47"/>
-      <c r="V106" s="49"/>
-      <c r="W106" s="43"/>
-      <c r="X106" s="44"/>
-      <c r="Y106" s="44"/>
-      <c r="Z106" s="45"/>
-      <c r="AA106" s="43"/>
-      <c r="AB106" s="44"/>
-      <c r="AC106" s="45"/>
-      <c r="AD106" s="43"/>
-      <c r="AE106" s="44"/>
-      <c r="AF106" s="44"/>
-      <c r="AG106" s="44"/>
-      <c r="AH106" s="44"/>
-      <c r="AI106" s="44"/>
-      <c r="AJ106" s="44"/>
-      <c r="AK106" s="44"/>
-      <c r="AL106" s="44"/>
-      <c r="AM106" s="45"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="22"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="22"/>
+      <c r="W106" s="18"/>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="19"/>
+      <c r="Z106" s="20"/>
+      <c r="AA106" s="18"/>
+      <c r="AB106" s="19"/>
+      <c r="AC106" s="20"/>
+      <c r="AD106" s="18"/>
+      <c r="AE106" s="19"/>
+      <c r="AF106" s="19"/>
+      <c r="AG106" s="19"/>
+      <c r="AH106" s="19"/>
+      <c r="AI106" s="19"/>
+      <c r="AJ106" s="19"/>
+      <c r="AK106" s="19"/>
+      <c r="AL106" s="19"/>
+      <c r="AM106" s="20"/>
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="45"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="45"/>
-      <c r="S107" s="47"/>
-      <c r="T107" s="49"/>
-      <c r="U107" s="47"/>
-      <c r="V107" s="49"/>
-      <c r="W107" s="43"/>
-      <c r="X107" s="44"/>
-      <c r="Y107" s="44"/>
-      <c r="Z107" s="45"/>
-      <c r="AA107" s="43"/>
-      <c r="AB107" s="44"/>
-      <c r="AC107" s="45"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="44"/>
-      <c r="AF107" s="44"/>
-      <c r="AG107" s="44"/>
-      <c r="AH107" s="44"/>
-      <c r="AI107" s="44"/>
-      <c r="AJ107" s="44"/>
-      <c r="AK107" s="44"/>
-      <c r="AL107" s="44"/>
-      <c r="AM107" s="45"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="21"/>
+      <c r="T107" s="22"/>
+      <c r="U107" s="21"/>
+      <c r="V107" s="22"/>
+      <c r="W107" s="18"/>
+      <c r="X107" s="19"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="18"/>
+      <c r="AB107" s="19"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="18"/>
+      <c r="AE107" s="19"/>
+      <c r="AF107" s="19"/>
+      <c r="AG107" s="19"/>
+      <c r="AH107" s="19"/>
+      <c r="AI107" s="19"/>
+      <c r="AJ107" s="19"/>
+      <c r="AK107" s="19"/>
+      <c r="AL107" s="19"/>
+      <c r="AM107" s="20"/>
       <c r="AN107" s="7"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="44"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="44"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="43"/>
-      <c r="P108" s="44"/>
-      <c r="Q108" s="44"/>
-      <c r="R108" s="45"/>
-      <c r="S108" s="47"/>
-      <c r="T108" s="49"/>
-      <c r="U108" s="47"/>
-      <c r="V108" s="49"/>
-      <c r="W108" s="43"/>
-      <c r="X108" s="44"/>
-      <c r="Y108" s="44"/>
-      <c r="Z108" s="45"/>
-      <c r="AA108" s="43"/>
-      <c r="AB108" s="44"/>
-      <c r="AC108" s="45"/>
-      <c r="AD108" s="43"/>
-      <c r="AE108" s="44"/>
-      <c r="AF108" s="44"/>
-      <c r="AG108" s="44"/>
-      <c r="AH108" s="44"/>
-      <c r="AI108" s="44"/>
-      <c r="AJ108" s="44"/>
-      <c r="AK108" s="44"/>
-      <c r="AL108" s="44"/>
-      <c r="AM108" s="45"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="21"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="18"/>
+      <c r="X108" s="19"/>
+      <c r="Y108" s="19"/>
+      <c r="Z108" s="20"/>
+      <c r="AA108" s="18"/>
+      <c r="AB108" s="19"/>
+      <c r="AC108" s="20"/>
+      <c r="AD108" s="18"/>
+      <c r="AE108" s="19"/>
+      <c r="AF108" s="19"/>
+      <c r="AG108" s="19"/>
+      <c r="AH108" s="19"/>
+      <c r="AI108" s="19"/>
+      <c r="AJ108" s="19"/>
+      <c r="AK108" s="19"/>
+      <c r="AL108" s="19"/>
+      <c r="AM108" s="20"/>
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8560,16 +8569,309 @@
     </row>
   </sheetData>
   <mergeCells count="337">
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="U78:V78"/>
-    <mergeCell ref="W78:Z78"/>
-    <mergeCell ref="AA78:AC78"/>
-    <mergeCell ref="AD78:AM78"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="I48:AF48"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="O86:R86"/>
+    <mergeCell ref="O87:R87"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="O92:R92"/>
+    <mergeCell ref="O93:R93"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="W95:Z95"/>
+    <mergeCell ref="W96:Z96"/>
+    <mergeCell ref="O94:R94"/>
+    <mergeCell ref="O95:R95"/>
+    <mergeCell ref="O96:R96"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="W80:Z80"/>
+    <mergeCell ref="W81:Z81"/>
+    <mergeCell ref="W82:Z82"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="W84:Z84"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="W86:Z86"/>
+    <mergeCell ref="W87:Z87"/>
+    <mergeCell ref="W88:Z88"/>
+    <mergeCell ref="W89:Z89"/>
+    <mergeCell ref="W90:Z90"/>
+    <mergeCell ref="W91:Z91"/>
+    <mergeCell ref="AD95:AM95"/>
+    <mergeCell ref="AD96:AM96"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AA95:AC95"/>
+    <mergeCell ref="AA96:AC96"/>
+    <mergeCell ref="AD79:AM79"/>
+    <mergeCell ref="AD80:AM80"/>
+    <mergeCell ref="AD81:AM81"/>
+    <mergeCell ref="AD82:AM82"/>
+    <mergeCell ref="AD83:AM83"/>
+    <mergeCell ref="AD84:AM84"/>
+    <mergeCell ref="AD85:AM85"/>
+    <mergeCell ref="AD86:AM86"/>
+    <mergeCell ref="AD87:AM87"/>
+    <mergeCell ref="AD88:AM88"/>
+    <mergeCell ref="AD89:AM89"/>
+    <mergeCell ref="AD90:AM90"/>
+    <mergeCell ref="AD91:AM91"/>
+    <mergeCell ref="AA89:AC89"/>
+    <mergeCell ref="AA90:AC90"/>
+    <mergeCell ref="AA91:AC91"/>
+    <mergeCell ref="AA92:AC92"/>
+    <mergeCell ref="AA93:AC93"/>
+    <mergeCell ref="AA84:AC84"/>
+    <mergeCell ref="D44:AF44"/>
+    <mergeCell ref="I60:AF60"/>
+    <mergeCell ref="I54:AF54"/>
+    <mergeCell ref="I57:AF57"/>
+    <mergeCell ref="D56:AF56"/>
+    <mergeCell ref="D59:AF59"/>
+    <mergeCell ref="AD92:AM92"/>
+    <mergeCell ref="AD93:AM93"/>
+    <mergeCell ref="AD94:AM94"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AA86:AC86"/>
+    <mergeCell ref="AA87:AC87"/>
+    <mergeCell ref="AA88:AC88"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AA80:AC80"/>
+    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AA82:AC82"/>
+    <mergeCell ref="AA83:AC83"/>
+    <mergeCell ref="W92:Z92"/>
+    <mergeCell ref="W93:Z93"/>
+    <mergeCell ref="W94:Z94"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="I45:AF45"/>
+    <mergeCell ref="D47:AF47"/>
+    <mergeCell ref="D50:AF50"/>
+    <mergeCell ref="D53:AF53"/>
+    <mergeCell ref="I51:AK51"/>
+    <mergeCell ref="S96:T96"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="U83:V83"/>
+    <mergeCell ref="U84:V84"/>
+    <mergeCell ref="U85:V85"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="U96:V96"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="U88:V88"/>
+    <mergeCell ref="U89:V89"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="O101:R101"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="O107:R107"/>
+    <mergeCell ref="O108:R108"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:V98"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="U99:V99"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:V100"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="U101:V101"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="O103:R103"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="O105:R105"/>
+    <mergeCell ref="O106:R106"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="U107:V107"/>
+    <mergeCell ref="S108:T108"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="W97:Z97"/>
+    <mergeCell ref="W98:Z98"/>
+    <mergeCell ref="W99:Z99"/>
+    <mergeCell ref="W100:Z100"/>
+    <mergeCell ref="W101:Z101"/>
+    <mergeCell ref="W102:Z102"/>
+    <mergeCell ref="W103:Z103"/>
+    <mergeCell ref="W104:Z104"/>
+    <mergeCell ref="W105:Z105"/>
+    <mergeCell ref="W106:Z106"/>
+    <mergeCell ref="W107:Z107"/>
+    <mergeCell ref="W108:Z108"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="U105:V105"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="U106:V106"/>
     <mergeCell ref="AA107:AC107"/>
     <mergeCell ref="AA108:AC108"/>
     <mergeCell ref="AD97:AM97"/>
@@ -8594,309 +8896,16 @@
     <mergeCell ref="AA99:AC99"/>
     <mergeCell ref="AA100:AC100"/>
     <mergeCell ref="AA101:AC101"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="U107:V107"/>
-    <mergeCell ref="S108:T108"/>
-    <mergeCell ref="U108:V108"/>
-    <mergeCell ref="W97:Z97"/>
-    <mergeCell ref="W98:Z98"/>
-    <mergeCell ref="W99:Z99"/>
-    <mergeCell ref="W100:Z100"/>
-    <mergeCell ref="W101:Z101"/>
-    <mergeCell ref="W102:Z102"/>
-    <mergeCell ref="W103:Z103"/>
-    <mergeCell ref="W104:Z104"/>
-    <mergeCell ref="W105:Z105"/>
-    <mergeCell ref="W106:Z106"/>
-    <mergeCell ref="W107:Z107"/>
-    <mergeCell ref="W108:Z108"/>
-    <mergeCell ref="S104:T104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="U105:V105"/>
-    <mergeCell ref="S106:T106"/>
-    <mergeCell ref="U106:V106"/>
-    <mergeCell ref="O107:R107"/>
-    <mergeCell ref="O108:R108"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:V97"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:V98"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="U99:V99"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:V100"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="U101:V101"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="U102:V102"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="U103:V103"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="O103:R103"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="O105:R105"/>
-    <mergeCell ref="O106:R106"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="O99:R99"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="O101:R101"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="U95:V95"/>
-    <mergeCell ref="U96:V96"/>
-    <mergeCell ref="U87:V87"/>
-    <mergeCell ref="U88:V88"/>
-    <mergeCell ref="U89:V89"/>
-    <mergeCell ref="U90:V90"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="U83:V83"/>
-    <mergeCell ref="U84:V84"/>
-    <mergeCell ref="U85:V85"/>
-    <mergeCell ref="U86:V86"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="S95:T95"/>
-    <mergeCell ref="S96:T96"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="I45:AF45"/>
-    <mergeCell ref="D47:AF47"/>
-    <mergeCell ref="D50:AF50"/>
-    <mergeCell ref="D53:AF53"/>
-    <mergeCell ref="I51:AK51"/>
-    <mergeCell ref="D44:AF44"/>
-    <mergeCell ref="I60:AF60"/>
-    <mergeCell ref="I54:AF54"/>
-    <mergeCell ref="I57:AF57"/>
-    <mergeCell ref="D56:AF56"/>
-    <mergeCell ref="D59:AF59"/>
-    <mergeCell ref="AD92:AM92"/>
-    <mergeCell ref="AD93:AM93"/>
-    <mergeCell ref="AD94:AM94"/>
-    <mergeCell ref="AD95:AM95"/>
-    <mergeCell ref="AD96:AM96"/>
-    <mergeCell ref="AA94:AC94"/>
-    <mergeCell ref="AA95:AC95"/>
-    <mergeCell ref="AA96:AC96"/>
-    <mergeCell ref="AD79:AM79"/>
-    <mergeCell ref="AD80:AM80"/>
-    <mergeCell ref="AD81:AM81"/>
-    <mergeCell ref="AD82:AM82"/>
-    <mergeCell ref="AD83:AM83"/>
-    <mergeCell ref="AD84:AM84"/>
-    <mergeCell ref="AD85:AM85"/>
-    <mergeCell ref="AD86:AM86"/>
-    <mergeCell ref="AD87:AM87"/>
-    <mergeCell ref="AD88:AM88"/>
-    <mergeCell ref="AD89:AM89"/>
-    <mergeCell ref="AD90:AM90"/>
-    <mergeCell ref="AD91:AM91"/>
-    <mergeCell ref="AA89:AC89"/>
-    <mergeCell ref="AA90:AC90"/>
-    <mergeCell ref="AA91:AC91"/>
-    <mergeCell ref="AA92:AC92"/>
-    <mergeCell ref="AA93:AC93"/>
-    <mergeCell ref="AA84:AC84"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AA86:AC86"/>
-    <mergeCell ref="AA87:AC87"/>
-    <mergeCell ref="AA88:AC88"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="AA80:AC80"/>
-    <mergeCell ref="AA81:AC81"/>
-    <mergeCell ref="AA82:AC82"/>
-    <mergeCell ref="AA83:AC83"/>
-    <mergeCell ref="W92:Z92"/>
-    <mergeCell ref="W93:Z93"/>
-    <mergeCell ref="W94:Z94"/>
-    <mergeCell ref="W95:Z95"/>
-    <mergeCell ref="W96:Z96"/>
-    <mergeCell ref="O94:R94"/>
-    <mergeCell ref="O95:R95"/>
-    <mergeCell ref="O96:R96"/>
-    <mergeCell ref="W79:Z79"/>
-    <mergeCell ref="W80:Z80"/>
-    <mergeCell ref="W81:Z81"/>
-    <mergeCell ref="W82:Z82"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="W84:Z84"/>
-    <mergeCell ref="W85:Z85"/>
-    <mergeCell ref="W86:Z86"/>
-    <mergeCell ref="W87:Z87"/>
-    <mergeCell ref="W88:Z88"/>
-    <mergeCell ref="W89:Z89"/>
-    <mergeCell ref="W90:Z90"/>
-    <mergeCell ref="W91:Z91"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="O80:R80"/>
-    <mergeCell ref="O81:R81"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="O86:R86"/>
-    <mergeCell ref="O87:R87"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="O89:R89"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="O91:R91"/>
-    <mergeCell ref="O92:R92"/>
-    <mergeCell ref="O93:R93"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="I48:AF48"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="U78:V78"/>
+    <mergeCell ref="W78:Z78"/>
+    <mergeCell ref="AA78:AC78"/>
+    <mergeCell ref="AD78:AM78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="O78:R78"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C19F53-C19B-4969-A9F0-B233844514B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8650DD-5A5A-4B44-9E5A-3BAD474BB1BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3903,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U85" sqref="U85:V85"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:AK51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_新規登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8650DD-5A5A-4B44-9E5A-3BAD474BB1BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACB737-D862-48C7-BFEB-C9E3540CF71E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -556,6 +556,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -886,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -922,61 +936,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,15 +967,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1037,9 +987,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,8 +996,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,8 +1336,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1043215" y="2915773"/>
-          <a:ext cx="1538408" cy="502664"/>
+          <a:off x="1043215" y="2859744"/>
+          <a:ext cx="1533072" cy="495193"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1449,8 +1474,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1036865" y="3382156"/>
-          <a:ext cx="1538408" cy="520220"/>
+          <a:off x="1036865" y="3318656"/>
+          <a:ext cx="1533072" cy="509014"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1587,8 +1612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="935265" y="3886850"/>
-          <a:ext cx="1633658" cy="487348"/>
+          <a:off x="935265" y="3812144"/>
+          <a:ext cx="1628322" cy="479878"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -1923,8 +1948,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4483902" y="2971109"/>
-          <a:ext cx="1478643" cy="502664"/>
+          <a:off x="4478566" y="2915080"/>
+          <a:ext cx="1478643" cy="495193"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -2061,8 +2086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4490252" y="3418442"/>
-          <a:ext cx="1478643" cy="520220"/>
+          <a:off x="4484916" y="3354942"/>
+          <a:ext cx="1478643" cy="509014"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -3272,8 +3297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4404980" y="3937650"/>
-          <a:ext cx="1573893" cy="487348"/>
+          <a:off x="4399644" y="3862944"/>
+          <a:ext cx="1573893" cy="479878"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -3914,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:AK51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3926,158 +3951,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="56" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="27"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="50" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="51">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="29">
         <v>45083</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="52" t="s">
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53">
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="30">
         <v>45084</v>
       </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="55"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="32"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="25"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4126,7 +4151,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -5550,7 +5575,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -5595,33 +5620,35 @@
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
+      <c r="C42" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
@@ -5637,33 +5664,35 @@
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
@@ -5680,37 +5709,34 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
       <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
@@ -5723,38 +5749,37 @@
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
       <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
@@ -5767,12 +5792,13 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -5794,7 +5820,6 @@
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
       <c r="AG46" s="8"/>
@@ -5809,38 +5834,34 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
       <c r="AG47" s="8"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
@@ -5853,36 +5874,37 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
+      <c r="C48" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" s="54"/>
+      <c r="AB48" s="54"/>
+      <c r="AC48" s="54"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
       <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
@@ -5895,10 +5917,13 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -5920,7 +5945,6 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="8"/>
       <c r="AG49" s="8"/>
@@ -5935,37 +5959,34 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
       <c r="AG50" s="8"/>
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
@@ -5978,41 +5999,42 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="25"/>
-      <c r="AK51" s="25"/>
+      <c r="C51" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="54"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
       <c r="AL51" s="8"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
@@ -6020,32 +6042,34 @@
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
+      <c r="H52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
       <c r="AG52" s="12"/>
@@ -6060,37 +6084,34 @@
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="D53" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AE53" s="53"/>
+      <c r="AF53" s="53"/>
       <c r="AG53" s="8"/>
       <c r="AH53" s="8"/>
       <c r="AI53" s="8"/>
@@ -6103,36 +6124,37 @@
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
-      <c r="V54" s="25"/>
-      <c r="W54" s="25"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
-      <c r="AD54" s="25"/>
-      <c r="AE54" s="25"/>
-      <c r="AF54" s="25"/>
+      <c r="C54" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="54"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
       <c r="AG54" s="8"/>
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
@@ -6145,20 +6167,23 @@
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
@@ -6170,7 +6195,6 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
@@ -6185,37 +6209,34 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="D56" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="26"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="26"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AE56" s="53"/>
+      <c r="AF56" s="53"/>
       <c r="AG56" s="8"/>
       <c r="AH56" s="8"/>
       <c r="AI56" s="8"/>
@@ -6228,36 +6249,37 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25"/>
-      <c r="AA57" s="25"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="25"/>
-      <c r="AD57" s="25"/>
-      <c r="AE57" s="25"/>
-      <c r="AF57" s="25"/>
+      <c r="C57" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
       <c r="AG57" s="8"/>
       <c r="AH57" s="8"/>
       <c r="AI57" s="8"/>
@@ -6270,10 +6292,13 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -6295,7 +6320,6 @@
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
-      <c r="AD58" s="8"/>
       <c r="AE58" s="8"/>
       <c r="AF58" s="8"/>
       <c r="AG58" s="8"/>
@@ -6310,37 +6334,34 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="D59" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AE59" s="53"/>
+      <c r="AF59" s="53"/>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
       <c r="AI59" s="8"/>
@@ -6353,36 +6374,34 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="25"/>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="25"/>
-      <c r="AF60" s="25"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
       <c r="AG60" s="8"/>
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
@@ -6395,32 +6414,6 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="8"/>
       <c r="AE61" s="8"/>
       <c r="AF61" s="8"/>
       <c r="AG61" s="8"/>
@@ -6435,32 +6428,6 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62" s="8"/>
-      <c r="AD62" s="8"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
       <c r="AG62" s="8"/>
@@ -7002,7 +6969,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="52" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -7088,1452 +7055,1432 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="13" t="s">
+      <c r="C78" s="58"/>
+      <c r="D78" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="13" t="s">
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="13" t="s">
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="13" t="s">
+      <c r="M78" s="60"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="13" t="s">
+      <c r="P78" s="60"/>
+      <c r="Q78" s="60"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="14"/>
-      <c r="U78" s="13" t="s">
+      <c r="T78" s="61"/>
+      <c r="U78" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="14"/>
-      <c r="W78" s="13" t="s">
+      <c r="V78" s="61"/>
+      <c r="W78" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="14"/>
-      <c r="AA78" s="13" t="s">
+      <c r="X78" s="60"/>
+      <c r="Y78" s="60"/>
+      <c r="Z78" s="61"/>
+      <c r="AA78" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="14"/>
-      <c r="AD78" s="13" t="s">
+      <c r="AB78" s="60"/>
+      <c r="AC78" s="61"/>
+      <c r="AD78" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="15"/>
-      <c r="AJ78" s="15"/>
-      <c r="AK78" s="15"/>
-      <c r="AL78" s="15"/>
-      <c r="AM78" s="14"/>
+      <c r="AE78" s="60"/>
+      <c r="AF78" s="60"/>
+      <c r="AG78" s="60"/>
+      <c r="AH78" s="60"/>
+      <c r="AI78" s="60"/>
+      <c r="AJ78" s="60"/>
+      <c r="AK78" s="60"/>
+      <c r="AL78" s="60"/>
+      <c r="AM78" s="61"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="30">
+      <c r="B79" s="33">
         <v>1</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="21" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="21" t="s">
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="21" t="s">
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="M79" s="27"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="21" t="s">
+      <c r="M79" s="43"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="21">
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="42">
         <v>8</v>
       </c>
-      <c r="T79" s="22"/>
-      <c r="U79" s="21">
+      <c r="T79" s="44"/>
+      <c r="U79" s="42">
         <v>20</v>
       </c>
-      <c r="V79" s="22"/>
-      <c r="W79" s="21" t="s">
+      <c r="V79" s="44"/>
+      <c r="W79" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="22"/>
-      <c r="AA79" s="21" t="s">
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="44"/>
+      <c r="AA79" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="18" t="s">
+      <c r="AB79" s="43"/>
+      <c r="AC79" s="44"/>
+      <c r="AD79" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE79" s="19"/>
-      <c r="AF79" s="19"/>
-      <c r="AG79" s="19"/>
-      <c r="AH79" s="19"/>
-      <c r="AI79" s="19"/>
-      <c r="AJ79" s="19"/>
-      <c r="AK79" s="19"/>
-      <c r="AL79" s="19"/>
-      <c r="AM79" s="20"/>
+      <c r="AE79" s="38"/>
+      <c r="AF79" s="38"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="38"/>
+      <c r="AL79" s="38"/>
+      <c r="AM79" s="39"/>
       <c r="AN79" s="7"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="30">
+      <c r="B80" s="33">
         <v>2</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="21" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="21" t="s">
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="21" t="s">
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="M80" s="27"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="21" t="s">
+      <c r="M80" s="43"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="21">
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="42">
         <v>8</v>
       </c>
-      <c r="T80" s="22"/>
-      <c r="U80" s="21">
+      <c r="T80" s="44"/>
+      <c r="U80" s="42">
         <v>20</v>
       </c>
-      <c r="V80" s="22"/>
-      <c r="W80" s="21" t="s">
+      <c r="V80" s="44"/>
+      <c r="W80" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="21" t="s">
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="44"/>
+      <c r="AA80" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="18" t="s">
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="44"/>
+      <c r="AD80" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE80" s="19"/>
-      <c r="AF80" s="19"/>
-      <c r="AG80" s="19"/>
-      <c r="AH80" s="19"/>
-      <c r="AI80" s="19"/>
-      <c r="AJ80" s="19"/>
-      <c r="AK80" s="19"/>
-      <c r="AL80" s="19"/>
-      <c r="AM80" s="20"/>
+      <c r="AE80" s="38"/>
+      <c r="AF80" s="38"/>
+      <c r="AG80" s="38"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="38"/>
+      <c r="AJ80" s="38"/>
+      <c r="AK80" s="38"/>
+      <c r="AL80" s="38"/>
+      <c r="AM80" s="39"/>
       <c r="AN80" s="7"/>
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
-      <c r="B81" s="30">
+      <c r="B81" s="33">
         <v>3</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="21" t="s">
+      <c r="C81" s="34"/>
+      <c r="D81" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="21" t="s">
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="21" t="s">
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="M81" s="27"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="21" t="s">
+      <c r="M81" s="43"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="21"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="22"/>
-      <c r="AD81" s="21" t="s">
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="44"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="44"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="44"/>
+      <c r="AD81" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AE81" s="27"/>
-      <c r="AF81" s="27"/>
-      <c r="AG81" s="27"/>
-      <c r="AH81" s="27"/>
-      <c r="AI81" s="27"/>
-      <c r="AJ81" s="27"/>
-      <c r="AK81" s="27"/>
-      <c r="AL81" s="27"/>
-      <c r="AM81" s="22"/>
+      <c r="AE81" s="43"/>
+      <c r="AF81" s="43"/>
+      <c r="AG81" s="43"/>
+      <c r="AH81" s="43"/>
+      <c r="AI81" s="43"/>
+      <c r="AJ81" s="43"/>
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="43"/>
+      <c r="AM81" s="44"/>
       <c r="AN81" s="7"/>
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
-      <c r="B82" s="30">
+      <c r="B82" s="33">
         <v>4</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="21" t="s">
+      <c r="C82" s="34"/>
+      <c r="D82" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="21" t="s">
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="21" t="s">
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="M82" s="27"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="21" t="s">
+      <c r="M82" s="43"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="21">
+      <c r="P82" s="43"/>
+      <c r="Q82" s="43"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="42">
         <v>1</v>
       </c>
-      <c r="T82" s="22"/>
-      <c r="U82" s="21">
+      <c r="T82" s="44"/>
+      <c r="U82" s="42">
         <v>20</v>
       </c>
-      <c r="V82" s="22"/>
-      <c r="W82" s="21" t="s">
+      <c r="V82" s="44"/>
+      <c r="W82" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="21" t="s">
+      <c r="X82" s="43"/>
+      <c r="Y82" s="43"/>
+      <c r="Z82" s="44"/>
+      <c r="AA82" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="18" t="s">
+      <c r="AB82" s="43"/>
+      <c r="AC82" s="44"/>
+      <c r="AD82" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE82" s="19"/>
-      <c r="AF82" s="19"/>
-      <c r="AG82" s="19"/>
-      <c r="AH82" s="19"/>
-      <c r="AI82" s="19"/>
-      <c r="AJ82" s="19"/>
-      <c r="AK82" s="19"/>
-      <c r="AL82" s="19"/>
-      <c r="AM82" s="20"/>
+      <c r="AE82" s="38"/>
+      <c r="AF82" s="38"/>
+      <c r="AG82" s="38"/>
+      <c r="AH82" s="38"/>
+      <c r="AI82" s="38"/>
+      <c r="AJ82" s="38"/>
+      <c r="AK82" s="38"/>
+      <c r="AL82" s="38"/>
+      <c r="AM82" s="39"/>
       <c r="AN82" s="7"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="30">
+      <c r="B83" s="33">
         <v>5</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="21" t="s">
+      <c r="C83" s="34"/>
+      <c r="D83" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="21" t="s">
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="21" t="s">
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="M83" s="27"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="21" t="s">
+      <c r="M83" s="43"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="21"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="18"/>
-      <c r="AE83" s="19"/>
-      <c r="AF83" s="19"/>
-      <c r="AG83" s="19"/>
-      <c r="AH83" s="19"/>
-      <c r="AI83" s="19"/>
-      <c r="AJ83" s="19"/>
-      <c r="AK83" s="19"/>
-      <c r="AL83" s="19"/>
-      <c r="AM83" s="20"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="44"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="43"/>
+      <c r="Y83" s="43"/>
+      <c r="Z83" s="44"/>
+      <c r="AA83" s="42"/>
+      <c r="AB83" s="43"/>
+      <c r="AC83" s="44"/>
+      <c r="AD83" s="37"/>
+      <c r="AE83" s="38"/>
+      <c r="AF83" s="38"/>
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="38"/>
+      <c r="AL83" s="38"/>
+      <c r="AM83" s="39"/>
       <c r="AN83" s="7"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="30">
+      <c r="B84" s="33">
         <v>6</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="21" t="s">
+      <c r="C84" s="34"/>
+      <c r="D84" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="21" t="s">
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="21" t="s">
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="M84" s="27"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="21" t="s">
+      <c r="M84" s="43"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="21"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
-      <c r="AG84" s="27"/>
-      <c r="AH84" s="27"/>
-      <c r="AI84" s="27"/>
-      <c r="AJ84" s="27"/>
-      <c r="AK84" s="27"/>
-      <c r="AL84" s="27"/>
-      <c r="AM84" s="22"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="43"/>
+      <c r="Y84" s="43"/>
+      <c r="Z84" s="44"/>
+      <c r="AA84" s="42"/>
+      <c r="AB84" s="43"/>
+      <c r="AC84" s="44"/>
+      <c r="AD84" s="42"/>
+      <c r="AE84" s="43"/>
+      <c r="AF84" s="43"/>
+      <c r="AG84" s="43"/>
+      <c r="AH84" s="43"/>
+      <c r="AI84" s="43"/>
+      <c r="AJ84" s="43"/>
+      <c r="AK84" s="43"/>
+      <c r="AL84" s="43"/>
+      <c r="AM84" s="44"/>
       <c r="AN84" s="7"/>
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
-      <c r="B85" s="30">
+      <c r="B85" s="33">
         <v>7</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="21" t="s">
+      <c r="C85" s="34"/>
+      <c r="D85" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="21" t="s">
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="21" t="s">
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M85" s="27"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="22"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="22"/>
-      <c r="AA85" s="21"/>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="18"/>
-      <c r="AE85" s="19"/>
-      <c r="AF85" s="19"/>
-      <c r="AG85" s="19"/>
-      <c r="AH85" s="19"/>
-      <c r="AI85" s="19"/>
-      <c r="AJ85" s="19"/>
-      <c r="AK85" s="19"/>
-      <c r="AL85" s="19"/>
-      <c r="AM85" s="20"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="44"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="42"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="42"/>
+      <c r="X85" s="43"/>
+      <c r="Y85" s="43"/>
+      <c r="Z85" s="44"/>
+      <c r="AA85" s="42"/>
+      <c r="AB85" s="43"/>
+      <c r="AC85" s="44"/>
+      <c r="AD85" s="37"/>
+      <c r="AE85" s="38"/>
+      <c r="AF85" s="38"/>
+      <c r="AG85" s="38"/>
+      <c r="AH85" s="38"/>
+      <c r="AI85" s="38"/>
+      <c r="AJ85" s="38"/>
+      <c r="AK85" s="38"/>
+      <c r="AL85" s="38"/>
+      <c r="AM85" s="39"/>
       <c r="AN85" s="7"/>
     </row>
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
-      <c r="B86" s="30">
+      <c r="B86" s="33">
         <v>8</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="21" t="s">
+      <c r="C86" s="34"/>
+      <c r="D86" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="21" t="s">
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="21" t="s">
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="M86" s="27"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="22"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="21"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="21"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="22"/>
-      <c r="AD86" s="18"/>
-      <c r="AE86" s="19"/>
-      <c r="AF86" s="19"/>
-      <c r="AG86" s="19"/>
-      <c r="AH86" s="19"/>
-      <c r="AI86" s="19"/>
-      <c r="AJ86" s="19"/>
-      <c r="AK86" s="19"/>
-      <c r="AL86" s="19"/>
-      <c r="AM86" s="20"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="44"/>
+      <c r="U86" s="42"/>
+      <c r="V86" s="44"/>
+      <c r="W86" s="42"/>
+      <c r="X86" s="43"/>
+      <c r="Y86" s="43"/>
+      <c r="Z86" s="44"/>
+      <c r="AA86" s="42"/>
+      <c r="AB86" s="43"/>
+      <c r="AC86" s="44"/>
+      <c r="AD86" s="37"/>
+      <c r="AE86" s="38"/>
+      <c r="AF86" s="38"/>
+      <c r="AG86" s="38"/>
+      <c r="AH86" s="38"/>
+      <c r="AI86" s="38"/>
+      <c r="AJ86" s="38"/>
+      <c r="AK86" s="38"/>
+      <c r="AL86" s="38"/>
+      <c r="AM86" s="39"/>
       <c r="AN86" s="7"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
-      <c r="B87" s="28">
-        <v>9</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="19"/>
-      <c r="Y87" s="19"/>
-      <c r="Z87" s="20"/>
-      <c r="AA87" s="18"/>
-      <c r="AB87" s="19"/>
-      <c r="AC87" s="20"/>
-      <c r="AD87" s="18"/>
-      <c r="AE87" s="19"/>
-      <c r="AF87" s="19"/>
-      <c r="AG87" s="19"/>
-      <c r="AH87" s="19"/>
-      <c r="AI87" s="19"/>
-      <c r="AJ87" s="19"/>
-      <c r="AK87" s="19"/>
-      <c r="AL87" s="19"/>
-      <c r="AM87" s="20"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="38"/>
+      <c r="Y87" s="38"/>
+      <c r="Z87" s="39"/>
+      <c r="AA87" s="37"/>
+      <c r="AB87" s="38"/>
+      <c r="AC87" s="39"/>
+      <c r="AD87" s="37"/>
+      <c r="AE87" s="38"/>
+      <c r="AF87" s="38"/>
+      <c r="AG87" s="38"/>
+      <c r="AH87" s="38"/>
+      <c r="AI87" s="38"/>
+      <c r="AJ87" s="38"/>
+      <c r="AK87" s="38"/>
+      <c r="AL87" s="38"/>
+      <c r="AM87" s="39"/>
       <c r="AN87" s="7"/>
     </row>
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
-      <c r="B88" s="28">
-        <v>10</v>
-      </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="19"/>
-      <c r="Y88" s="19"/>
-      <c r="Z88" s="20"/>
-      <c r="AA88" s="18"/>
-      <c r="AB88" s="19"/>
-      <c r="AC88" s="20"/>
-      <c r="AD88" s="18"/>
-      <c r="AE88" s="19"/>
-      <c r="AF88" s="19"/>
-      <c r="AG88" s="19"/>
-      <c r="AH88" s="19"/>
-      <c r="AI88" s="19"/>
-      <c r="AJ88" s="19"/>
-      <c r="AK88" s="19"/>
-      <c r="AL88" s="19"/>
-      <c r="AM88" s="20"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="42"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="39"/>
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="38"/>
+      <c r="AC88" s="39"/>
+      <c r="AD88" s="37"/>
+      <c r="AE88" s="38"/>
+      <c r="AF88" s="38"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="38"/>
+      <c r="AL88" s="38"/>
+      <c r="AM88" s="39"/>
       <c r="AN88" s="7"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
-      <c r="B89" s="28">
-        <v>11</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="21"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="18"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="19"/>
-      <c r="Z89" s="20"/>
-      <c r="AA89" s="18"/>
-      <c r="AB89" s="19"/>
-      <c r="AC89" s="20"/>
-      <c r="AD89" s="18"/>
-      <c r="AE89" s="19"/>
-      <c r="AF89" s="19"/>
-      <c r="AG89" s="19"/>
-      <c r="AH89" s="19"/>
-      <c r="AI89" s="19"/>
-      <c r="AJ89" s="19"/>
-      <c r="AK89" s="19"/>
-      <c r="AL89" s="19"/>
-      <c r="AM89" s="20"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="44"/>
+      <c r="U89" s="42"/>
+      <c r="V89" s="44"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="38"/>
+      <c r="Y89" s="38"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="37"/>
+      <c r="AB89" s="38"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="37"/>
+      <c r="AE89" s="38"/>
+      <c r="AF89" s="38"/>
+      <c r="AG89" s="38"/>
+      <c r="AH89" s="38"/>
+      <c r="AI89" s="38"/>
+      <c r="AJ89" s="38"/>
+      <c r="AK89" s="38"/>
+      <c r="AL89" s="38"/>
+      <c r="AM89" s="39"/>
       <c r="AN89" s="7"/>
     </row>
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
-      <c r="B90" s="28">
-        <v>12</v>
-      </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="19"/>
-      <c r="Y90" s="19"/>
-      <c r="Z90" s="20"/>
-      <c r="AA90" s="18"/>
-      <c r="AB90" s="19"/>
-      <c r="AC90" s="20"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="19"/>
-      <c r="AF90" s="19"/>
-      <c r="AG90" s="19"/>
-      <c r="AH90" s="19"/>
-      <c r="AI90" s="19"/>
-      <c r="AJ90" s="19"/>
-      <c r="AK90" s="19"/>
-      <c r="AL90" s="19"/>
-      <c r="AM90" s="20"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="38"/>
+      <c r="Z90" s="39"/>
+      <c r="AA90" s="37"/>
+      <c r="AB90" s="38"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="37"/>
+      <c r="AE90" s="38"/>
+      <c r="AF90" s="38"/>
+      <c r="AG90" s="38"/>
+      <c r="AH90" s="38"/>
+      <c r="AI90" s="38"/>
+      <c r="AJ90" s="38"/>
+      <c r="AK90" s="38"/>
+      <c r="AL90" s="38"/>
+      <c r="AM90" s="39"/>
       <c r="AN90" s="7"/>
     </row>
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
-      <c r="B91" s="28">
-        <v>13</v>
-      </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="21"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="18"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
-      <c r="Z91" s="20"/>
-      <c r="AA91" s="18"/>
-      <c r="AB91" s="19"/>
-      <c r="AC91" s="20"/>
-      <c r="AD91" s="18"/>
-      <c r="AE91" s="19"/>
-      <c r="AF91" s="19"/>
-      <c r="AG91" s="19"/>
-      <c r="AH91" s="19"/>
-      <c r="AI91" s="19"/>
-      <c r="AJ91" s="19"/>
-      <c r="AK91" s="19"/>
-      <c r="AL91" s="19"/>
-      <c r="AM91" s="20"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="38"/>
+      <c r="Y91" s="38"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="37"/>
+      <c r="AB91" s="38"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="37"/>
+      <c r="AE91" s="38"/>
+      <c r="AF91" s="38"/>
+      <c r="AG91" s="38"/>
+      <c r="AH91" s="38"/>
+      <c r="AI91" s="38"/>
+      <c r="AJ91" s="38"/>
+      <c r="AK91" s="38"/>
+      <c r="AL91" s="38"/>
+      <c r="AM91" s="39"/>
       <c r="AN91" s="7"/>
     </row>
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
-      <c r="B92" s="28">
-        <v>14</v>
-      </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="20"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
-      <c r="Z92" s="20"/>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="19"/>
-      <c r="AC92" s="20"/>
-      <c r="AD92" s="18"/>
-      <c r="AE92" s="19"/>
-      <c r="AF92" s="19"/>
-      <c r="AG92" s="19"/>
-      <c r="AH92" s="19"/>
-      <c r="AI92" s="19"/>
-      <c r="AJ92" s="19"/>
-      <c r="AK92" s="19"/>
-      <c r="AL92" s="19"/>
-      <c r="AM92" s="20"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="38"/>
+      <c r="Z92" s="39"/>
+      <c r="AA92" s="37"/>
+      <c r="AB92" s="38"/>
+      <c r="AC92" s="39"/>
+      <c r="AD92" s="37"/>
+      <c r="AE92" s="38"/>
+      <c r="AF92" s="38"/>
+      <c r="AG92" s="38"/>
+      <c r="AH92" s="38"/>
+      <c r="AI92" s="38"/>
+      <c r="AJ92" s="38"/>
+      <c r="AK92" s="38"/>
+      <c r="AL92" s="38"/>
+      <c r="AM92" s="39"/>
       <c r="AN92" s="7"/>
     </row>
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
-      <c r="B93" s="28">
-        <v>15</v>
-      </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="18"/>
-      <c r="X93" s="19"/>
-      <c r="Y93" s="19"/>
-      <c r="Z93" s="20"/>
-      <c r="AA93" s="18"/>
-      <c r="AB93" s="19"/>
-      <c r="AC93" s="20"/>
-      <c r="AD93" s="18"/>
-      <c r="AE93" s="19"/>
-      <c r="AF93" s="19"/>
-      <c r="AG93" s="19"/>
-      <c r="AH93" s="19"/>
-      <c r="AI93" s="19"/>
-      <c r="AJ93" s="19"/>
-      <c r="AK93" s="19"/>
-      <c r="AL93" s="19"/>
-      <c r="AM93" s="20"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="39"/>
+      <c r="AA93" s="37"/>
+      <c r="AB93" s="38"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="37"/>
+      <c r="AE93" s="38"/>
+      <c r="AF93" s="38"/>
+      <c r="AG93" s="38"/>
+      <c r="AH93" s="38"/>
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="38"/>
+      <c r="AK93" s="38"/>
+      <c r="AL93" s="38"/>
+      <c r="AM93" s="39"/>
       <c r="AN93" s="7"/>
     </row>
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
-      <c r="B94" s="28">
-        <v>16</v>
-      </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="22"/>
-      <c r="U94" s="21"/>
-      <c r="V94" s="22"/>
-      <c r="W94" s="18"/>
-      <c r="X94" s="19"/>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="20"/>
-      <c r="AA94" s="18"/>
-      <c r="AB94" s="19"/>
-      <c r="AC94" s="20"/>
-      <c r="AD94" s="18"/>
-      <c r="AE94" s="19"/>
-      <c r="AF94" s="19"/>
-      <c r="AG94" s="19"/>
-      <c r="AH94" s="19"/>
-      <c r="AI94" s="19"/>
-      <c r="AJ94" s="19"/>
-      <c r="AK94" s="19"/>
-      <c r="AL94" s="19"/>
-      <c r="AM94" s="20"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="42"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="38"/>
+      <c r="Y94" s="38"/>
+      <c r="Z94" s="39"/>
+      <c r="AA94" s="37"/>
+      <c r="AB94" s="38"/>
+      <c r="AC94" s="39"/>
+      <c r="AD94" s="37"/>
+      <c r="AE94" s="38"/>
+      <c r="AF94" s="38"/>
+      <c r="AG94" s="38"/>
+      <c r="AH94" s="38"/>
+      <c r="AI94" s="38"/>
+      <c r="AJ94" s="38"/>
+      <c r="AK94" s="38"/>
+      <c r="AL94" s="38"/>
+      <c r="AM94" s="39"/>
       <c r="AN94" s="7"/>
     </row>
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
-      <c r="B95" s="28">
-        <v>17</v>
-      </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="20"/>
-      <c r="S95" s="21"/>
-      <c r="T95" s="22"/>
-      <c r="U95" s="21"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="18"/>
-      <c r="X95" s="19"/>
-      <c r="Y95" s="19"/>
-      <c r="Z95" s="20"/>
-      <c r="AA95" s="18"/>
-      <c r="AB95" s="19"/>
-      <c r="AC95" s="20"/>
-      <c r="AD95" s="18"/>
-      <c r="AE95" s="19"/>
-      <c r="AF95" s="19"/>
-      <c r="AG95" s="19"/>
-      <c r="AH95" s="19"/>
-      <c r="AI95" s="19"/>
-      <c r="AJ95" s="19"/>
-      <c r="AK95" s="19"/>
-      <c r="AL95" s="19"/>
-      <c r="AM95" s="20"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="42"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="39"/>
+      <c r="AA95" s="37"/>
+      <c r="AB95" s="38"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="37"/>
+      <c r="AE95" s="38"/>
+      <c r="AF95" s="38"/>
+      <c r="AG95" s="38"/>
+      <c r="AH95" s="38"/>
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="39"/>
       <c r="AN95" s="7"/>
     </row>
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
-      <c r="B96" s="28">
-        <v>18</v>
-      </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="20"/>
-      <c r="S96" s="21"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="21"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="18"/>
-      <c r="X96" s="19"/>
-      <c r="Y96" s="19"/>
-      <c r="Z96" s="20"/>
-      <c r="AA96" s="18"/>
-      <c r="AB96" s="19"/>
-      <c r="AC96" s="20"/>
-      <c r="AD96" s="18"/>
-      <c r="AE96" s="19"/>
-      <c r="AF96" s="19"/>
-      <c r="AG96" s="19"/>
-      <c r="AH96" s="19"/>
-      <c r="AI96" s="19"/>
-      <c r="AJ96" s="19"/>
-      <c r="AK96" s="19"/>
-      <c r="AL96" s="19"/>
-      <c r="AM96" s="20"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="38"/>
+      <c r="Y96" s="38"/>
+      <c r="Z96" s="39"/>
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="38"/>
+      <c r="AC96" s="39"/>
+      <c r="AD96" s="37"/>
+      <c r="AE96" s="38"/>
+      <c r="AF96" s="38"/>
+      <c r="AG96" s="38"/>
+      <c r="AH96" s="38"/>
+      <c r="AI96" s="38"/>
+      <c r="AJ96" s="38"/>
+      <c r="AK96" s="38"/>
+      <c r="AL96" s="38"/>
+      <c r="AM96" s="39"/>
       <c r="AN96" s="7"/>
     </row>
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="20"/>
-      <c r="S97" s="21"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="21"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="20"/>
-      <c r="AA97" s="18"/>
-      <c r="AB97" s="19"/>
-      <c r="AC97" s="20"/>
-      <c r="AD97" s="18"/>
-      <c r="AE97" s="19"/>
-      <c r="AF97" s="19"/>
-      <c r="AG97" s="19"/>
-      <c r="AH97" s="19"/>
-      <c r="AI97" s="19"/>
-      <c r="AJ97" s="19"/>
-      <c r="AK97" s="19"/>
-      <c r="AL97" s="19"/>
-      <c r="AM97" s="20"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="44"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="44"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="38"/>
+      <c r="Y97" s="38"/>
+      <c r="Z97" s="39"/>
+      <c r="AA97" s="37"/>
+      <c r="AB97" s="38"/>
+      <c r="AC97" s="39"/>
+      <c r="AD97" s="37"/>
+      <c r="AE97" s="38"/>
+      <c r="AF97" s="38"/>
+      <c r="AG97" s="38"/>
+      <c r="AH97" s="38"/>
+      <c r="AI97" s="38"/>
+      <c r="AJ97" s="38"/>
+      <c r="AK97" s="38"/>
+      <c r="AL97" s="38"/>
+      <c r="AM97" s="39"/>
       <c r="AN97" s="7"/>
     </row>
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="20"/>
-      <c r="S98" s="21"/>
-      <c r="T98" s="22"/>
-      <c r="U98" s="21"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="19"/>
-      <c r="Y98" s="19"/>
-      <c r="Z98" s="20"/>
-      <c r="AA98" s="18"/>
-      <c r="AB98" s="19"/>
-      <c r="AC98" s="20"/>
-      <c r="AD98" s="18"/>
-      <c r="AE98" s="19"/>
-      <c r="AF98" s="19"/>
-      <c r="AG98" s="19"/>
-      <c r="AH98" s="19"/>
-      <c r="AI98" s="19"/>
-      <c r="AJ98" s="19"/>
-      <c r="AK98" s="19"/>
-      <c r="AL98" s="19"/>
-      <c r="AM98" s="20"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="44"/>
+      <c r="U98" s="42"/>
+      <c r="V98" s="44"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="38"/>
+      <c r="Y98" s="38"/>
+      <c r="Z98" s="39"/>
+      <c r="AA98" s="37"/>
+      <c r="AB98" s="38"/>
+      <c r="AC98" s="39"/>
+      <c r="AD98" s="37"/>
+      <c r="AE98" s="38"/>
+      <c r="AF98" s="38"/>
+      <c r="AG98" s="38"/>
+      <c r="AH98" s="38"/>
+      <c r="AI98" s="38"/>
+      <c r="AJ98" s="38"/>
+      <c r="AK98" s="38"/>
+      <c r="AL98" s="38"/>
+      <c r="AM98" s="39"/>
       <c r="AN98" s="7"/>
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="21"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="21"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="19"/>
-      <c r="Y99" s="19"/>
-      <c r="Z99" s="20"/>
-      <c r="AA99" s="18"/>
-      <c r="AB99" s="19"/>
-      <c r="AC99" s="20"/>
-      <c r="AD99" s="18"/>
-      <c r="AE99" s="19"/>
-      <c r="AF99" s="19"/>
-      <c r="AG99" s="19"/>
-      <c r="AH99" s="19"/>
-      <c r="AI99" s="19"/>
-      <c r="AJ99" s="19"/>
-      <c r="AK99" s="19"/>
-      <c r="AL99" s="19"/>
-      <c r="AM99" s="20"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="38"/>
+      <c r="Q99" s="38"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="44"/>
+      <c r="U99" s="42"/>
+      <c r="V99" s="44"/>
+      <c r="W99" s="37"/>
+      <c r="X99" s="38"/>
+      <c r="Y99" s="38"/>
+      <c r="Z99" s="39"/>
+      <c r="AA99" s="37"/>
+      <c r="AB99" s="38"/>
+      <c r="AC99" s="39"/>
+      <c r="AD99" s="37"/>
+      <c r="AE99" s="38"/>
+      <c r="AF99" s="38"/>
+      <c r="AG99" s="38"/>
+      <c r="AH99" s="38"/>
+      <c r="AI99" s="38"/>
+      <c r="AJ99" s="38"/>
+      <c r="AK99" s="38"/>
+      <c r="AL99" s="38"/>
+      <c r="AM99" s="39"/>
       <c r="AN99" s="7"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="20"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="20"/>
-      <c r="AA100" s="18"/>
-      <c r="AB100" s="19"/>
-      <c r="AC100" s="20"/>
-      <c r="AD100" s="18"/>
-      <c r="AE100" s="19"/>
-      <c r="AF100" s="19"/>
-      <c r="AG100" s="19"/>
-      <c r="AH100" s="19"/>
-      <c r="AI100" s="19"/>
-      <c r="AJ100" s="19"/>
-      <c r="AK100" s="19"/>
-      <c r="AL100" s="19"/>
-      <c r="AM100" s="20"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="42"/>
+      <c r="T100" s="44"/>
+      <c r="U100" s="42"/>
+      <c r="V100" s="44"/>
+      <c r="W100" s="37"/>
+      <c r="X100" s="38"/>
+      <c r="Y100" s="38"/>
+      <c r="Z100" s="39"/>
+      <c r="AA100" s="37"/>
+      <c r="AB100" s="38"/>
+      <c r="AC100" s="39"/>
+      <c r="AD100" s="37"/>
+      <c r="AE100" s="38"/>
+      <c r="AF100" s="38"/>
+      <c r="AG100" s="38"/>
+      <c r="AH100" s="38"/>
+      <c r="AI100" s="38"/>
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="38"/>
+      <c r="AL100" s="38"/>
+      <c r="AM100" s="39"/>
       <c r="AN100" s="7"/>
     </row>
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="20"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="20"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="22"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="20"/>
-      <c r="AA101" s="18"/>
-      <c r="AB101" s="19"/>
-      <c r="AC101" s="20"/>
-      <c r="AD101" s="18"/>
-      <c r="AE101" s="19"/>
-      <c r="AF101" s="19"/>
-      <c r="AG101" s="19"/>
-      <c r="AH101" s="19"/>
-      <c r="AI101" s="19"/>
-      <c r="AJ101" s="19"/>
-      <c r="AK101" s="19"/>
-      <c r="AL101" s="19"/>
-      <c r="AM101" s="20"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="38"/>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="42"/>
+      <c r="T101" s="44"/>
+      <c r="U101" s="42"/>
+      <c r="V101" s="44"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="38"/>
+      <c r="Y101" s="38"/>
+      <c r="Z101" s="39"/>
+      <c r="AA101" s="37"/>
+      <c r="AB101" s="38"/>
+      <c r="AC101" s="39"/>
+      <c r="AD101" s="37"/>
+      <c r="AE101" s="38"/>
+      <c r="AF101" s="38"/>
+      <c r="AG101" s="38"/>
+      <c r="AH101" s="38"/>
+      <c r="AI101" s="38"/>
+      <c r="AJ101" s="38"/>
+      <c r="AK101" s="38"/>
+      <c r="AL101" s="38"/>
+      <c r="AM101" s="39"/>
       <c r="AN101" s="7"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="21"/>
-      <c r="T102" s="22"/>
-      <c r="U102" s="21"/>
-      <c r="V102" s="22"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="19"/>
-      <c r="Y102" s="19"/>
-      <c r="Z102" s="20"/>
-      <c r="AA102" s="18"/>
-      <c r="AB102" s="19"/>
-      <c r="AC102" s="20"/>
-      <c r="AD102" s="18"/>
-      <c r="AE102" s="19"/>
-      <c r="AF102" s="19"/>
-      <c r="AG102" s="19"/>
-      <c r="AH102" s="19"/>
-      <c r="AI102" s="19"/>
-      <c r="AJ102" s="19"/>
-      <c r="AK102" s="19"/>
-      <c r="AL102" s="19"/>
-      <c r="AM102" s="20"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="38"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="44"/>
+      <c r="U102" s="42"/>
+      <c r="V102" s="44"/>
+      <c r="W102" s="37"/>
+      <c r="X102" s="38"/>
+      <c r="Y102" s="38"/>
+      <c r="Z102" s="39"/>
+      <c r="AA102" s="37"/>
+      <c r="AB102" s="38"/>
+      <c r="AC102" s="39"/>
+      <c r="AD102" s="37"/>
+      <c r="AE102" s="38"/>
+      <c r="AF102" s="38"/>
+      <c r="AG102" s="38"/>
+      <c r="AH102" s="38"/>
+      <c r="AI102" s="38"/>
+      <c r="AJ102" s="38"/>
+      <c r="AK102" s="38"/>
+      <c r="AL102" s="38"/>
+      <c r="AM102" s="39"/>
       <c r="AN102" s="7"/>
     </row>
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="20"/>
-      <c r="S103" s="21"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="22"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="20"/>
-      <c r="AA103" s="18"/>
-      <c r="AB103" s="19"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="18"/>
-      <c r="AE103" s="19"/>
-      <c r="AF103" s="19"/>
-      <c r="AG103" s="19"/>
-      <c r="AH103" s="19"/>
-      <c r="AI103" s="19"/>
-      <c r="AJ103" s="19"/>
-      <c r="AK103" s="19"/>
-      <c r="AL103" s="19"/>
-      <c r="AM103" s="20"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="39"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="44"/>
+      <c r="U103" s="42"/>
+      <c r="V103" s="44"/>
+      <c r="W103" s="37"/>
+      <c r="X103" s="38"/>
+      <c r="Y103" s="38"/>
+      <c r="Z103" s="39"/>
+      <c r="AA103" s="37"/>
+      <c r="AB103" s="38"/>
+      <c r="AC103" s="39"/>
+      <c r="AD103" s="37"/>
+      <c r="AE103" s="38"/>
+      <c r="AF103" s="38"/>
+      <c r="AG103" s="38"/>
+      <c r="AH103" s="38"/>
+      <c r="AI103" s="38"/>
+      <c r="AJ103" s="38"/>
+      <c r="AK103" s="38"/>
+      <c r="AL103" s="38"/>
+      <c r="AM103" s="39"/>
       <c r="AN103" s="7"/>
     </row>
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="18"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="22"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="22"/>
-      <c r="W104" s="18"/>
-      <c r="X104" s="19"/>
-      <c r="Y104" s="19"/>
-      <c r="Z104" s="20"/>
-      <c r="AA104" s="18"/>
-      <c r="AB104" s="19"/>
-      <c r="AC104" s="20"/>
-      <c r="AD104" s="18"/>
-      <c r="AE104" s="19"/>
-      <c r="AF104" s="19"/>
-      <c r="AG104" s="19"/>
-      <c r="AH104" s="19"/>
-      <c r="AI104" s="19"/>
-      <c r="AJ104" s="19"/>
-      <c r="AK104" s="19"/>
-      <c r="AL104" s="19"/>
-      <c r="AM104" s="20"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="39"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="38"/>
+      <c r="Q104" s="38"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="44"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="44"/>
+      <c r="W104" s="37"/>
+      <c r="X104" s="38"/>
+      <c r="Y104" s="38"/>
+      <c r="Z104" s="39"/>
+      <c r="AA104" s="37"/>
+      <c r="AB104" s="38"/>
+      <c r="AC104" s="39"/>
+      <c r="AD104" s="37"/>
+      <c r="AE104" s="38"/>
+      <c r="AF104" s="38"/>
+      <c r="AG104" s="38"/>
+      <c r="AH104" s="38"/>
+      <c r="AI104" s="38"/>
+      <c r="AJ104" s="38"/>
+      <c r="AK104" s="38"/>
+      <c r="AL104" s="38"/>
+      <c r="AM104" s="39"/>
       <c r="AN104" s="7"/>
     </row>
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="20"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="20"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="21"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="18"/>
-      <c r="X105" s="19"/>
-      <c r="Y105" s="19"/>
-      <c r="Z105" s="20"/>
-      <c r="AA105" s="18"/>
-      <c r="AB105" s="19"/>
-      <c r="AC105" s="20"/>
-      <c r="AD105" s="18"/>
-      <c r="AE105" s="19"/>
-      <c r="AF105" s="19"/>
-      <c r="AG105" s="19"/>
-      <c r="AH105" s="19"/>
-      <c r="AI105" s="19"/>
-      <c r="AJ105" s="19"/>
-      <c r="AK105" s="19"/>
-      <c r="AL105" s="19"/>
-      <c r="AM105" s="20"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="44"/>
+      <c r="U105" s="42"/>
+      <c r="V105" s="44"/>
+      <c r="W105" s="37"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="39"/>
+      <c r="AA105" s="37"/>
+      <c r="AB105" s="38"/>
+      <c r="AC105" s="39"/>
+      <c r="AD105" s="37"/>
+      <c r="AE105" s="38"/>
+      <c r="AF105" s="38"/>
+      <c r="AG105" s="38"/>
+      <c r="AH105" s="38"/>
+      <c r="AI105" s="38"/>
+      <c r="AJ105" s="38"/>
+      <c r="AK105" s="38"/>
+      <c r="AL105" s="38"/>
+      <c r="AM105" s="39"/>
       <c r="AN105" s="7"/>
     </row>
     <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="20"/>
-      <c r="S106" s="21"/>
-      <c r="T106" s="22"/>
-      <c r="U106" s="21"/>
-      <c r="V106" s="22"/>
-      <c r="W106" s="18"/>
-      <c r="X106" s="19"/>
-      <c r="Y106" s="19"/>
-      <c r="Z106" s="20"/>
-      <c r="AA106" s="18"/>
-      <c r="AB106" s="19"/>
-      <c r="AC106" s="20"/>
-      <c r="AD106" s="18"/>
-      <c r="AE106" s="19"/>
-      <c r="AF106" s="19"/>
-      <c r="AG106" s="19"/>
-      <c r="AH106" s="19"/>
-      <c r="AI106" s="19"/>
-      <c r="AJ106" s="19"/>
-      <c r="AK106" s="19"/>
-      <c r="AL106" s="19"/>
-      <c r="AM106" s="20"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="39"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="38"/>
+      <c r="Q106" s="38"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="44"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="44"/>
+      <c r="W106" s="37"/>
+      <c r="X106" s="38"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="39"/>
+      <c r="AA106" s="37"/>
+      <c r="AB106" s="38"/>
+      <c r="AC106" s="39"/>
+      <c r="AD106" s="37"/>
+      <c r="AE106" s="38"/>
+      <c r="AF106" s="38"/>
+      <c r="AG106" s="38"/>
+      <c r="AH106" s="38"/>
+      <c r="AI106" s="38"/>
+      <c r="AJ106" s="38"/>
+      <c r="AK106" s="38"/>
+      <c r="AL106" s="38"/>
+      <c r="AM106" s="39"/>
       <c r="AN106" s="7"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="20"/>
-      <c r="S107" s="21"/>
-      <c r="T107" s="22"/>
-      <c r="U107" s="21"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="18"/>
-      <c r="X107" s="19"/>
-      <c r="Y107" s="19"/>
-      <c r="Z107" s="20"/>
-      <c r="AA107" s="18"/>
-      <c r="AB107" s="19"/>
-      <c r="AC107" s="20"/>
-      <c r="AD107" s="18"/>
-      <c r="AE107" s="19"/>
-      <c r="AF107" s="19"/>
-      <c r="AG107" s="19"/>
-      <c r="AH107" s="19"/>
-      <c r="AI107" s="19"/>
-      <c r="AJ107" s="19"/>
-      <c r="AK107" s="19"/>
-      <c r="AL107" s="19"/>
-      <c r="AM107" s="20"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="44"/>
+      <c r="U107" s="42"/>
+      <c r="V107" s="44"/>
+      <c r="W107" s="37"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="39"/>
+      <c r="AA107" s="37"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="37"/>
+      <c r="AE107" s="38"/>
+      <c r="AF107" s="38"/>
+      <c r="AG107" s="38"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="38"/>
+      <c r="AL107" s="38"/>
+      <c r="AM107" s="39"/>
       <c r="AN107" s="7"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="20"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="20"/>
-      <c r="S108" s="21"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="21"/>
-      <c r="V108" s="22"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="19"/>
-      <c r="Y108" s="19"/>
-      <c r="Z108" s="20"/>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="19"/>
-      <c r="AC108" s="20"/>
-      <c r="AD108" s="18"/>
-      <c r="AE108" s="19"/>
-      <c r="AF108" s="19"/>
-      <c r="AG108" s="19"/>
-      <c r="AH108" s="19"/>
-      <c r="AI108" s="19"/>
-      <c r="AJ108" s="19"/>
-      <c r="AK108" s="19"/>
-      <c r="AL108" s="19"/>
-      <c r="AM108" s="20"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="39"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
+      <c r="R108" s="39"/>
+      <c r="S108" s="42"/>
+      <c r="T108" s="44"/>
+      <c r="U108" s="42"/>
+      <c r="V108" s="44"/>
+      <c r="W108" s="37"/>
+      <c r="X108" s="38"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="39"/>
+      <c r="AA108" s="37"/>
+      <c r="AB108" s="38"/>
+      <c r="AC108" s="39"/>
+      <c r="AD108" s="37"/>
+      <c r="AE108" s="38"/>
+      <c r="AF108" s="38"/>
+      <c r="AG108" s="38"/>
+      <c r="AH108" s="38"/>
+      <c r="AI108" s="38"/>
+      <c r="AJ108" s="38"/>
+      <c r="AK108" s="38"/>
+      <c r="AL108" s="38"/>
+      <c r="AM108" s="39"/>
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8579,56 +8526,260 @@
       <c r="AN109" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="I48:AF48"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
+  <mergeCells count="325">
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="U78:V78"/>
+    <mergeCell ref="W78:Z78"/>
+    <mergeCell ref="AA78:AC78"/>
+    <mergeCell ref="AD78:AM78"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="AA107:AC107"/>
+    <mergeCell ref="AA108:AC108"/>
+    <mergeCell ref="AD97:AM97"/>
+    <mergeCell ref="AD98:AM98"/>
+    <mergeCell ref="AD99:AM99"/>
+    <mergeCell ref="AD100:AM100"/>
+    <mergeCell ref="AD101:AM101"/>
+    <mergeCell ref="AD102:AM102"/>
+    <mergeCell ref="AD103:AM103"/>
+    <mergeCell ref="AD104:AM104"/>
+    <mergeCell ref="AD105:AM105"/>
+    <mergeCell ref="AD106:AM106"/>
+    <mergeCell ref="AD107:AM107"/>
+    <mergeCell ref="AD108:AM108"/>
+    <mergeCell ref="AA102:AC102"/>
+    <mergeCell ref="AA103:AC103"/>
+    <mergeCell ref="AA104:AC104"/>
+    <mergeCell ref="AA105:AC105"/>
+    <mergeCell ref="AA106:AC106"/>
+    <mergeCell ref="AA97:AC97"/>
+    <mergeCell ref="AA98:AC98"/>
+    <mergeCell ref="AA99:AC99"/>
+    <mergeCell ref="AA100:AC100"/>
+    <mergeCell ref="AA101:AC101"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="U107:V107"/>
+    <mergeCell ref="S108:T108"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="W97:Z97"/>
+    <mergeCell ref="W98:Z98"/>
+    <mergeCell ref="W99:Z99"/>
+    <mergeCell ref="W100:Z100"/>
+    <mergeCell ref="W101:Z101"/>
+    <mergeCell ref="W102:Z102"/>
+    <mergeCell ref="W103:Z103"/>
+    <mergeCell ref="W104:Z104"/>
+    <mergeCell ref="W105:Z105"/>
+    <mergeCell ref="W106:Z106"/>
+    <mergeCell ref="W107:Z107"/>
+    <mergeCell ref="W108:Z108"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="U104:V104"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="U105:V105"/>
+    <mergeCell ref="S106:T106"/>
+    <mergeCell ref="U106:V106"/>
+    <mergeCell ref="O107:R107"/>
+    <mergeCell ref="O108:R108"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:V98"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="U99:V99"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:V100"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="U101:V101"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="O103:R103"/>
+    <mergeCell ref="O104:R104"/>
+    <mergeCell ref="O105:R105"/>
+    <mergeCell ref="O106:R106"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="O101:R101"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="U96:V96"/>
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="U88:V88"/>
+    <mergeCell ref="U89:V89"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="S96:T96"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="U82:V82"/>
+    <mergeCell ref="U83:V83"/>
+    <mergeCell ref="U84:V84"/>
+    <mergeCell ref="U85:V85"/>
+    <mergeCell ref="U86:V86"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="AD92:AM92"/>
+    <mergeCell ref="AD93:AM93"/>
+    <mergeCell ref="AD94:AM94"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AA86:AC86"/>
+    <mergeCell ref="AA87:AC87"/>
+    <mergeCell ref="AA88:AC88"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AA80:AC80"/>
+    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AA82:AC82"/>
+    <mergeCell ref="AA83:AC83"/>
+    <mergeCell ref="W92:Z92"/>
+    <mergeCell ref="W93:Z93"/>
+    <mergeCell ref="W94:Z94"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="AD95:AM95"/>
+    <mergeCell ref="AD96:AM96"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AA95:AC95"/>
+    <mergeCell ref="AA96:AC96"/>
+    <mergeCell ref="AD79:AM79"/>
+    <mergeCell ref="AD80:AM80"/>
+    <mergeCell ref="AD81:AM81"/>
+    <mergeCell ref="AD82:AM82"/>
+    <mergeCell ref="AD83:AM83"/>
+    <mergeCell ref="AD84:AM84"/>
+    <mergeCell ref="AD85:AM85"/>
+    <mergeCell ref="AD86:AM86"/>
+    <mergeCell ref="AD87:AM87"/>
+    <mergeCell ref="AD88:AM88"/>
+    <mergeCell ref="AD89:AM89"/>
+    <mergeCell ref="AD90:AM90"/>
+    <mergeCell ref="AD91:AM91"/>
+    <mergeCell ref="AA89:AC89"/>
+    <mergeCell ref="AA90:AC90"/>
+    <mergeCell ref="AA91:AC91"/>
+    <mergeCell ref="AA92:AC92"/>
+    <mergeCell ref="AA93:AC93"/>
+    <mergeCell ref="AA84:AC84"/>
+    <mergeCell ref="W95:Z95"/>
+    <mergeCell ref="W96:Z96"/>
+    <mergeCell ref="O94:R94"/>
+    <mergeCell ref="O95:R95"/>
+    <mergeCell ref="O96:R96"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="W80:Z80"/>
+    <mergeCell ref="W81:Z81"/>
+    <mergeCell ref="W82:Z82"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="W84:Z84"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="W86:Z86"/>
+    <mergeCell ref="W87:Z87"/>
+    <mergeCell ref="W88:Z88"/>
+    <mergeCell ref="W89:Z89"/>
+    <mergeCell ref="W90:Z90"/>
+    <mergeCell ref="W91:Z91"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="O89:R89"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="O92:R92"/>
+    <mergeCell ref="O93:R93"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="O86:R86"/>
+    <mergeCell ref="O87:R87"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="L95:N95"/>
     <mergeCell ref="D95:G95"/>
     <mergeCell ref="D96:G96"/>
     <mergeCell ref="H79:K79"/>
@@ -8653,270 +8804,54 @@
     <mergeCell ref="D85:G85"/>
     <mergeCell ref="D86:G86"/>
     <mergeCell ref="D87:G87"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="L80:N80"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="O80:R80"/>
-    <mergeCell ref="O81:R81"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="O86:R86"/>
-    <mergeCell ref="O87:R87"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="O89:R89"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="O91:R91"/>
-    <mergeCell ref="O92:R92"/>
-    <mergeCell ref="O93:R93"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="W95:Z95"/>
-    <mergeCell ref="W96:Z96"/>
-    <mergeCell ref="O94:R94"/>
-    <mergeCell ref="O95:R95"/>
-    <mergeCell ref="O96:R96"/>
-    <mergeCell ref="W79:Z79"/>
-    <mergeCell ref="W80:Z80"/>
-    <mergeCell ref="W81:Z81"/>
-    <mergeCell ref="W82:Z82"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="W84:Z84"/>
-    <mergeCell ref="W85:Z85"/>
-    <mergeCell ref="W86:Z86"/>
-    <mergeCell ref="W87:Z87"/>
-    <mergeCell ref="W88:Z88"/>
-    <mergeCell ref="W89:Z89"/>
-    <mergeCell ref="W90:Z90"/>
-    <mergeCell ref="W91:Z91"/>
-    <mergeCell ref="AD95:AM95"/>
-    <mergeCell ref="AD96:AM96"/>
-    <mergeCell ref="AA94:AC94"/>
-    <mergeCell ref="AA95:AC95"/>
-    <mergeCell ref="AA96:AC96"/>
-    <mergeCell ref="AD79:AM79"/>
-    <mergeCell ref="AD80:AM80"/>
-    <mergeCell ref="AD81:AM81"/>
-    <mergeCell ref="AD82:AM82"/>
-    <mergeCell ref="AD83:AM83"/>
-    <mergeCell ref="AD84:AM84"/>
-    <mergeCell ref="AD85:AM85"/>
-    <mergeCell ref="AD86:AM86"/>
-    <mergeCell ref="AD87:AM87"/>
-    <mergeCell ref="AD88:AM88"/>
-    <mergeCell ref="AD89:AM89"/>
-    <mergeCell ref="AD90:AM90"/>
-    <mergeCell ref="AD91:AM91"/>
-    <mergeCell ref="AA89:AC89"/>
-    <mergeCell ref="AA90:AC90"/>
-    <mergeCell ref="AA91:AC91"/>
-    <mergeCell ref="AA92:AC92"/>
-    <mergeCell ref="AA93:AC93"/>
-    <mergeCell ref="AA84:AC84"/>
-    <mergeCell ref="D44:AF44"/>
-    <mergeCell ref="I60:AF60"/>
-    <mergeCell ref="I54:AF54"/>
-    <mergeCell ref="I57:AF57"/>
-    <mergeCell ref="D56:AF56"/>
-    <mergeCell ref="D59:AF59"/>
-    <mergeCell ref="AD92:AM92"/>
-    <mergeCell ref="AD93:AM93"/>
-    <mergeCell ref="AD94:AM94"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AA86:AC86"/>
-    <mergeCell ref="AA87:AC87"/>
-    <mergeCell ref="AA88:AC88"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="AA80:AC80"/>
-    <mergeCell ref="AA81:AC81"/>
-    <mergeCell ref="AA82:AC82"/>
-    <mergeCell ref="AA83:AC83"/>
-    <mergeCell ref="W92:Z92"/>
-    <mergeCell ref="W93:Z93"/>
-    <mergeCell ref="W94:Z94"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="I45:AF45"/>
-    <mergeCell ref="D47:AF47"/>
-    <mergeCell ref="D50:AF50"/>
-    <mergeCell ref="D53:AF53"/>
-    <mergeCell ref="I51:AK51"/>
-    <mergeCell ref="S96:T96"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="U82:V82"/>
-    <mergeCell ref="U83:V83"/>
-    <mergeCell ref="U84:V84"/>
-    <mergeCell ref="U85:V85"/>
-    <mergeCell ref="U86:V86"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="S95:T95"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="U95:V95"/>
-    <mergeCell ref="U96:V96"/>
-    <mergeCell ref="U87:V87"/>
-    <mergeCell ref="U88:V88"/>
-    <mergeCell ref="U89:V89"/>
-    <mergeCell ref="U90:V90"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="O101:R101"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="H105:K105"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="O107:R107"/>
-    <mergeCell ref="O108:R108"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:V97"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:V98"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="U99:V99"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:V100"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="U101:V101"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="U102:V102"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="U103:V103"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="O103:R103"/>
-    <mergeCell ref="O104:R104"/>
-    <mergeCell ref="O105:R105"/>
-    <mergeCell ref="O106:R106"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="O99:R99"/>
-    <mergeCell ref="S107:T107"/>
-    <mergeCell ref="U107:V107"/>
-    <mergeCell ref="S108:T108"/>
-    <mergeCell ref="U108:V108"/>
-    <mergeCell ref="W97:Z97"/>
-    <mergeCell ref="W98:Z98"/>
-    <mergeCell ref="W99:Z99"/>
-    <mergeCell ref="W100:Z100"/>
-    <mergeCell ref="W101:Z101"/>
-    <mergeCell ref="W102:Z102"/>
-    <mergeCell ref="W103:Z103"/>
-    <mergeCell ref="W104:Z104"/>
-    <mergeCell ref="W105:Z105"/>
-    <mergeCell ref="W106:Z106"/>
-    <mergeCell ref="W107:Z107"/>
-    <mergeCell ref="W108:Z108"/>
-    <mergeCell ref="S104:T104"/>
-    <mergeCell ref="U104:V104"/>
-    <mergeCell ref="S105:T105"/>
-    <mergeCell ref="U105:V105"/>
-    <mergeCell ref="S106:T106"/>
-    <mergeCell ref="U106:V106"/>
-    <mergeCell ref="AA107:AC107"/>
-    <mergeCell ref="AA108:AC108"/>
-    <mergeCell ref="AD97:AM97"/>
-    <mergeCell ref="AD98:AM98"/>
-    <mergeCell ref="AD99:AM99"/>
-    <mergeCell ref="AD100:AM100"/>
-    <mergeCell ref="AD101:AM101"/>
-    <mergeCell ref="AD102:AM102"/>
-    <mergeCell ref="AD103:AM103"/>
-    <mergeCell ref="AD104:AM104"/>
-    <mergeCell ref="AD105:AM105"/>
-    <mergeCell ref="AD106:AM106"/>
-    <mergeCell ref="AD107:AM107"/>
-    <mergeCell ref="AD108:AM108"/>
-    <mergeCell ref="AA102:AC102"/>
-    <mergeCell ref="AA103:AC103"/>
-    <mergeCell ref="AA104:AC104"/>
-    <mergeCell ref="AA105:AC105"/>
-    <mergeCell ref="AA106:AC106"/>
-    <mergeCell ref="AA97:AC97"/>
-    <mergeCell ref="AA98:AC98"/>
-    <mergeCell ref="AA99:AC99"/>
-    <mergeCell ref="AA100:AC100"/>
-    <mergeCell ref="AA101:AC101"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="U78:V78"/>
-    <mergeCell ref="W78:Z78"/>
-    <mergeCell ref="AA78:AC78"/>
-    <mergeCell ref="AD78:AM78"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
